--- a/raw_data/20200818_saline/20200818_Sensor2_Test_81.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_81.xlsx
@@ -1,1172 +1,1588 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF6FD0-CE94-4265-8030-A244299BBB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>72376.175850</v>
+        <v>72376.17585</v>
       </c>
       <c r="B2" s="1">
-        <v>20.104493</v>
+        <v>20.104493000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1248.560000</v>
+        <v>1248.56</v>
       </c>
       <c r="D2" s="1">
-        <v>-300.964000</v>
+        <v>-300.964</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>72386.871578</v>
+        <v>72386.871578000006</v>
       </c>
       <c r="G2" s="1">
         <v>20.107464</v>
       </c>
       <c r="H2" s="1">
-        <v>1272.540000</v>
+        <v>1272.54</v>
       </c>
       <c r="I2" s="1">
-        <v>-260.788000</v>
+        <v>-260.78800000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>72397.379820</v>
+        <v>72397.379820000002</v>
       </c>
       <c r="L2" s="1">
-        <v>20.110383</v>
+        <v>20.110382999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1307.790000</v>
+        <v>1307.79</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.420000</v>
+        <v>-201.42</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>72407.613775</v>
+        <v>72407.613775000005</v>
       </c>
       <c r="Q2" s="1">
-        <v>20.113226</v>
+        <v>20.113226000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1320.080000</v>
+        <v>1320.08</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.232000</v>
+        <v>-184.232</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>72417.803617</v>
+        <v>72417.803616999998</v>
       </c>
       <c r="V2" s="1">
-        <v>20.116057</v>
+        <v>20.116057000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1333.610000</v>
+        <v>1333.61</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.472000</v>
+        <v>-171.47200000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>72427.950778</v>
+        <v>72427.950777999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>20.118875</v>
+        <v>20.118874999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1351.940000</v>
+        <v>1351.94</v>
       </c>
       <c r="AC2" s="1">
-        <v>-170.155000</v>
+        <v>-170.155</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>72437.865273</v>
+        <v>72437.865273000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>20.121629</v>
+        <v>20.121628999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1365.340000</v>
+        <v>1365.34</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.994000</v>
+        <v>-179.994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>72448.331849</v>
+        <v>72448.331848999995</v>
       </c>
       <c r="AK2" s="1">
         <v>20.124537</v>
       </c>
       <c r="AL2" s="1">
-        <v>1386.950000</v>
+        <v>1386.95</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.823000</v>
+        <v>-209.82300000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>72458.599070</v>
+        <v>72458.599069999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>20.127389</v>
+        <v>20.127389000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1409.450000</v>
+        <v>1409.45</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.247000</v>
+        <v>-253.24700000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>72469.593357</v>
+        <v>72469.593357000005</v>
       </c>
       <c r="AU2" s="1">
         <v>20.130443</v>
       </c>
       <c r="AV2" s="1">
-        <v>1434.820000</v>
+        <v>1434.82</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.534000</v>
+        <v>-312.53399999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>72480.751854</v>
+        <v>72480.751854000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>20.133542</v>
+        <v>20.133541999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1454.730000</v>
+        <v>1454.73</v>
       </c>
       <c r="BB2" s="1">
-        <v>-363.867000</v>
+        <v>-363.86700000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>72491.737776</v>
+        <v>72491.737775999994</v>
       </c>
       <c r="BE2" s="1">
-        <v>20.136594</v>
+        <v>20.136593999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1541.680000</v>
+        <v>1541.68</v>
       </c>
       <c r="BG2" s="1">
-        <v>-608.356000</v>
+        <v>-608.35599999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>72502.736140</v>
+        <v>72502.736139999994</v>
       </c>
       <c r="BJ2" s="1">
-        <v>20.139649</v>
+        <v>20.139648999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1697.770000</v>
+        <v>1697.77</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1045.470000</v>
+        <v>-1045.47</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>72514.212962</v>
+        <v>72514.212962000005</v>
       </c>
       <c r="BO2" s="1">
         <v>20.142837</v>
       </c>
       <c r="BP2" s="1">
-        <v>1994.220000</v>
+        <v>1994.22</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1800.050000</v>
+        <v>-1800.05</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>72524.840740</v>
+        <v>72524.84074</v>
       </c>
       <c r="BT2" s="1">
-        <v>20.145789</v>
+        <v>20.145789000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2382.690000</v>
+        <v>2382.69</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2665.740000</v>
+        <v>-2665.74</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>72535.539942</v>
+        <v>72535.539942000003</v>
       </c>
       <c r="BY2" s="1">
         <v>20.148761</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2864.760000</v>
+        <v>2864.76</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3610.560000</v>
+        <v>-3610.56</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>72546.412285</v>
+        <v>72546.412284999999</v>
       </c>
       <c r="CD2" s="1">
         <v>20.151781</v>
       </c>
       <c r="CE2" s="1">
-        <v>4263.180000</v>
+        <v>4263.18</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5868.740000</v>
+        <v>-5868.74</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>72376.860825</v>
+        <v>72376.860824999996</v>
       </c>
       <c r="B3" s="1">
-        <v>20.104684</v>
+        <v>20.104683999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1248.280000</v>
+        <v>1248.28</v>
       </c>
       <c r="D3" s="1">
-        <v>-300.801000</v>
+        <v>-300.80099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>72387.271392</v>
+        <v>72387.271391999995</v>
       </c>
       <c r="G3" s="1">
-        <v>20.107575</v>
+        <v>20.107575000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1271.990000</v>
+        <v>1271.99</v>
       </c>
       <c r="I3" s="1">
-        <v>-260.912000</v>
+        <v>-260.91199999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>72397.780625</v>
+        <v>72397.780624999999</v>
       </c>
       <c r="L3" s="1">
         <v>20.110495</v>
       </c>
       <c r="M3" s="1">
-        <v>1308.130000</v>
+        <v>1308.1300000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.440000</v>
+        <v>-201.44</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>72407.968451</v>
+        <v>72407.968450999993</v>
       </c>
       <c r="Q3" s="1">
         <v>20.113325</v>
       </c>
       <c r="R3" s="1">
-        <v>1319.950000</v>
+        <v>1319.95</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.265000</v>
+        <v>-184.26499999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>72418.186001</v>
+        <v>72418.186000999995</v>
       </c>
       <c r="V3" s="1">
         <v>20.116163</v>
       </c>
       <c r="W3" s="1">
-        <v>1333.650000</v>
+        <v>1333.65</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.801000</v>
+        <v>-171.80099999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>72428.335139</v>
+        <v>72428.335139000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>20.118982</v>
+        <v>20.118981999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1351.980000</v>
+        <v>1351.98</v>
       </c>
       <c r="AC3" s="1">
-        <v>-170.014000</v>
+        <v>-170.01400000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>72438.300263</v>
+        <v>72438.300262999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>20.121750</v>
+        <v>20.121749999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1365.560000</v>
+        <v>1365.56</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.129000</v>
+        <v>-180.12899999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>72448.443481</v>
+        <v>72448.443480999995</v>
       </c>
       <c r="AK3" s="1">
         <v>20.124568</v>
       </c>
       <c r="AL3" s="1">
-        <v>1386.970000</v>
+        <v>1386.97</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.841000</v>
+        <v>-209.84100000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>72459.023115</v>
+        <v>72459.023115000004</v>
       </c>
       <c r="AP3" s="1">
         <v>20.127506</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1409.530000</v>
+        <v>1409.53</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.222000</v>
+        <v>-253.22200000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>72469.959439</v>
+        <v>72469.959438999998</v>
       </c>
       <c r="AU3" s="1">
         <v>20.130544</v>
       </c>
       <c r="AV3" s="1">
-        <v>1434.850000</v>
+        <v>1434.85</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.511000</v>
+        <v>-312.51100000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>72481.143695</v>
+        <v>72481.143695000006</v>
       </c>
       <c r="AZ3" s="1">
         <v>20.133651</v>
       </c>
       <c r="BA3" s="1">
-        <v>1454.690000</v>
+        <v>1454.69</v>
       </c>
       <c r="BB3" s="1">
-        <v>-363.904000</v>
+        <v>-363.904</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>72492.109279</v>
+        <v>72492.109278999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>20.136697</v>
+        <v>20.136697000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1541.690000</v>
+        <v>1541.69</v>
       </c>
       <c r="BG3" s="1">
-        <v>-608.369000</v>
+        <v>-608.36900000000003</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>72503.496896</v>
+        <v>72503.496895999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>20.139860</v>
+        <v>20.139859999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1697.760000</v>
+        <v>1697.76</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1045.550000</v>
+        <v>-1045.55</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>72514.624146</v>
+        <v>72514.624146000002</v>
       </c>
       <c r="BO3" s="1">
         <v>20.142951</v>
       </c>
       <c r="BP3" s="1">
-        <v>1993.840000</v>
+        <v>1993.84</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1800.330000</v>
+        <v>-1800.33</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>72525.324369</v>
+        <v>72525.324368999994</v>
       </c>
       <c r="BT3" s="1">
         <v>20.145923</v>
       </c>
       <c r="BU3" s="1">
-        <v>2382.850000</v>
+        <v>2382.85</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2665.980000</v>
+        <v>-2665.98</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>72536.022086</v>
+        <v>72536.022085999997</v>
       </c>
       <c r="BY3" s="1">
         <v>20.148895</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2864.250000</v>
+        <v>2864.25</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3611.150000</v>
+        <v>-3611.15</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>72547.317478</v>
+        <v>72547.317477999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>20.152033</v>
+        <v>20.152032999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4274.230000</v>
+        <v>4274.2299999999996</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5860.380000</v>
+        <v>-5860.38</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>72377.211001</v>
+        <v>72377.211001000003</v>
       </c>
       <c r="B4" s="1">
-        <v>20.104781</v>
+        <v>20.104780999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1248.620000</v>
+        <v>1248.6199999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-300.923000</v>
+        <v>-300.923</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>72387.617563</v>
+        <v>72387.617563000007</v>
       </c>
       <c r="G4" s="1">
-        <v>20.107672</v>
+        <v>20.107672000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.260000</v>
+        <v>1273.26</v>
       </c>
       <c r="I4" s="1">
-        <v>-260.168000</v>
+        <v>-260.16800000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>72398.127788</v>
+        <v>72398.127787999998</v>
       </c>
       <c r="L4" s="1">
-        <v>20.110591</v>
+        <v>20.110590999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1308.280000</v>
+        <v>1308.28</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.094000</v>
+        <v>-201.09399999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>72408.315647</v>
+        <v>72408.315646999996</v>
       </c>
       <c r="Q4" s="1">
-        <v>20.113421</v>
+        <v>20.113420999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1320.020000</v>
+        <v>1320.02</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.193000</v>
+        <v>-184.19300000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>72418.622978</v>
+        <v>72418.622977999999</v>
       </c>
       <c r="V4" s="1">
         <v>20.116284</v>
       </c>
       <c r="W4" s="1">
-        <v>1333.700000</v>
+        <v>1333.7</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.606000</v>
+        <v>-171.60599999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>72428.766163</v>
+        <v>72428.766162999993</v>
       </c>
       <c r="AA4" s="1">
-        <v>20.119102</v>
+        <v>20.119102000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1351.870000</v>
+        <v>1351.87</v>
       </c>
       <c r="AC4" s="1">
-        <v>-170.129000</v>
+        <v>-170.12899999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>72438.586950</v>
+        <v>72438.586949999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.121830</v>
+        <v>20.121829999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1365.370000</v>
+        <v>1365.37</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.721000</v>
+        <v>-179.721</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>72448.781225</v>
+        <v>72448.781224999999</v>
       </c>
       <c r="AK4" s="1">
         <v>20.124661</v>
       </c>
       <c r="AL4" s="1">
-        <v>1386.940000</v>
+        <v>1386.94</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.815000</v>
+        <v>-209.815</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>72459.383739</v>
+        <v>72459.383738999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>20.127607</v>
+        <v>20.127607000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1409.480000</v>
+        <v>1409.48</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.293000</v>
+        <v>-253.29300000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>72470.319500</v>
+        <v>72470.319499999998</v>
       </c>
       <c r="AU4" s="1">
         <v>20.130644</v>
       </c>
       <c r="AV4" s="1">
-        <v>1434.820000</v>
+        <v>1434.82</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.485000</v>
+        <v>-312.48500000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>72481.859950</v>
+        <v>72481.859949999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>20.133850</v>
+        <v>20.133849999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1454.680000</v>
+        <v>1454.68</v>
       </c>
       <c r="BB4" s="1">
-        <v>-363.850000</v>
+        <v>-363.85</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>72492.845806</v>
+        <v>72492.845805999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>20.136902</v>
+        <v>20.136901999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1541.660000</v>
+        <v>1541.66</v>
       </c>
       <c r="BG4" s="1">
-        <v>-608.369000</v>
+        <v>-608.36900000000003</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>72503.899653</v>
@@ -1175,769 +1591,769 @@
         <v>20.139972</v>
       </c>
       <c r="BK4" s="1">
-        <v>1697.750000</v>
+        <v>1697.75</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1045.480000</v>
+        <v>-1045.48</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>72515.038342</v>
       </c>
       <c r="BO4" s="1">
-        <v>20.143066</v>
+        <v>20.143066000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1993.970000</v>
+        <v>1993.97</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1800.360000</v>
+        <v>-1800.36</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>72525.757877</v>
+        <v>72525.757876999996</v>
       </c>
       <c r="BT4" s="1">
         <v>20.146044</v>
       </c>
       <c r="BU4" s="1">
-        <v>2383.580000</v>
+        <v>2383.58</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2666.380000</v>
+        <v>-2666.38</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>72536.789860</v>
+        <v>72536.789860000004</v>
       </c>
       <c r="BY4" s="1">
-        <v>20.149108</v>
+        <v>20.149107999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2864.530000</v>
+        <v>2864.53</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3611.800000</v>
+        <v>-3611.8</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>72547.533702</v>
+        <v>72547.533702000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>20.152093</v>
+        <v>20.152093000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4262.700000</v>
+        <v>4262.7</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5867.560000</v>
+        <v>-5867.56</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>72377.554231</v>
+        <v>72377.554231000002</v>
       </c>
       <c r="B5" s="1">
-        <v>20.104876</v>
+        <v>20.104876000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1248.260000</v>
+        <v>1248.26</v>
       </c>
       <c r="D5" s="1">
-        <v>-300.894000</v>
+        <v>-300.89400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>72387.962288</v>
+        <v>72387.962287999995</v>
       </c>
       <c r="G5" s="1">
-        <v>20.107767</v>
+        <v>20.107766999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1272.380000</v>
+        <v>1272.3800000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-260.782000</v>
+        <v>-260.78199999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>72398.694715</v>
+        <v>72398.694715000005</v>
       </c>
       <c r="L5" s="1">
-        <v>20.110749</v>
+        <v>20.110748999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>1308.020000</v>
+        <v>1308.02</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.138000</v>
+        <v>-201.13800000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>72408.742670</v>
+        <v>72408.742670000007</v>
       </c>
       <c r="Q5" s="1">
-        <v>20.113540</v>
+        <v>20.11354</v>
       </c>
       <c r="R5" s="1">
-        <v>1320.040000</v>
+        <v>1320.04</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.131000</v>
+        <v>-184.131</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>72418.905200</v>
+        <v>72418.905199999994</v>
       </c>
       <c r="V5" s="1">
         <v>20.116363</v>
       </c>
       <c r="W5" s="1">
-        <v>1333.510000</v>
+        <v>1333.51</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.672000</v>
+        <v>-171.672</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>72429.055332</v>
+        <v>72429.055332000004</v>
       </c>
       <c r="AA5" s="1">
-        <v>20.119182</v>
+        <v>20.119181999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1351.790000</v>
+        <v>1351.79</v>
       </c>
       <c r="AC5" s="1">
-        <v>-170.159000</v>
+        <v>-170.15899999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>72438.929686</v>
+        <v>72438.929686000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>20.121925</v>
+        <v>20.121925000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1365.490000</v>
+        <v>1365.49</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.931000</v>
+        <v>-179.93100000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>72449.130904</v>
+        <v>72449.130904000005</v>
       </c>
       <c r="AK5" s="1">
-        <v>20.124759</v>
+        <v>20.124759000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1386.950000</v>
+        <v>1386.95</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.844000</v>
+        <v>-209.84399999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>72459.746315</v>
+        <v>72459.746314999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>20.127707</v>
+        <v>20.127707000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1409.480000</v>
+        <v>1409.48</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.226000</v>
+        <v>-253.226</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>72471.049621</v>
+        <v>72471.049620999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>20.130847</v>
+        <v>20.130846999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1434.850000</v>
+        <v>1434.85</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.491000</v>
+        <v>-312.49099999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>72482.219516</v>
+        <v>72482.219515999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>20.133950</v>
+        <v>20.133949999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1454.710000</v>
+        <v>1454.71</v>
       </c>
       <c r="BB5" s="1">
-        <v>-363.870000</v>
+        <v>-363.87</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>72493.222766</v>
+        <v>72493.222766000006</v>
       </c>
       <c r="BE5" s="1">
         <v>20.137006</v>
       </c>
       <c r="BF5" s="1">
-        <v>1541.660000</v>
+        <v>1541.66</v>
       </c>
       <c r="BG5" s="1">
-        <v>-608.360000</v>
+        <v>-608.36</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>72504.273631</v>
+        <v>72504.273631000004</v>
       </c>
       <c r="BJ5" s="1">
-        <v>20.140076</v>
+        <v>20.140076000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1697.680000</v>
+        <v>1697.68</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1045.490000</v>
+        <v>-1045.49</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>72515.750561</v>
+        <v>72515.750560999993</v>
       </c>
       <c r="BO5" s="1">
-        <v>20.143264</v>
+        <v>20.143263999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1993.770000</v>
+        <v>1993.77</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1800.360000</v>
+        <v>-1800.36</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>72526.479555</v>
+        <v>72526.479554999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.146244</v>
+        <v>20.146243999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2383.710000</v>
+        <v>2383.71</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2667.140000</v>
+        <v>-2667.14</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>72536.903444</v>
+        <v>72536.903443999996</v>
       </c>
       <c r="BY5" s="1">
-        <v>20.149140</v>
+        <v>20.149139999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2865.080000</v>
+        <v>2865.08</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3611.290000</v>
+        <v>-3611.29</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>72548.049541</v>
       </c>
       <c r="CD5" s="1">
-        <v>20.152236</v>
+        <v>20.152235999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>4270.600000</v>
+        <v>4270.6000000000004</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5878.060000</v>
+        <v>-5878.06</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>72377.894982</v>
+        <v>72377.894981999998</v>
       </c>
       <c r="B6" s="1">
-        <v>20.104971</v>
+        <v>20.104970999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="D6" s="1">
-        <v>-300.964000</v>
+        <v>-300.964</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>72388.393801</v>
+        <v>72388.393800999998</v>
       </c>
       <c r="G6" s="1">
-        <v>20.107887</v>
+        <v>20.107887000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1273.370000</v>
+        <v>1273.3699999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-260.515000</v>
+        <v>-260.51499999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>72398.815741</v>
+        <v>72398.815740999999</v>
       </c>
       <c r="L6" s="1">
         <v>20.110782</v>
       </c>
       <c r="M6" s="1">
-        <v>1308.010000</v>
+        <v>1308.01</v>
       </c>
       <c r="N6" s="1">
-        <v>-200.955000</v>
+        <v>-200.95500000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>72409.014478</v>
+        <v>72409.014477999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>20.113615</v>
+        <v>20.113614999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1320.110000</v>
+        <v>1320.11</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.153000</v>
+        <v>-184.15299999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>72419.248432</v>
+        <v>72419.248431999993</v>
       </c>
       <c r="V6" s="1">
-        <v>20.116458</v>
+        <v>20.116458000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>1333.620000</v>
+        <v>1333.62</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.644000</v>
+        <v>-171.64400000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>72429.406498</v>
+        <v>72429.406497999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>20.119280</v>
+        <v>20.11928</v>
       </c>
       <c r="AB6" s="1">
-        <v>1351.860000</v>
+        <v>1351.86</v>
       </c>
       <c r="AC6" s="1">
-        <v>-170.200000</v>
+        <v>-170.2</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>72439.277414</v>
+        <v>72439.277413999996</v>
       </c>
       <c r="AF6" s="1">
-        <v>20.122022</v>
+        <v>20.122022000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1365.500000</v>
+        <v>1365.5</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.951000</v>
+        <v>-179.95099999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>72449.827290</v>
+        <v>72449.827290000001</v>
       </c>
       <c r="AK6" s="1">
         <v>20.124952</v>
       </c>
       <c r="AL6" s="1">
-        <v>1386.960000</v>
+        <v>1386.96</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.793000</v>
+        <v>-209.79300000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>72460.465481</v>
+        <v>72460.465481000007</v>
       </c>
       <c r="AP6" s="1">
         <v>20.127907</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1409.480000</v>
+        <v>1409.48</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.229000</v>
+        <v>-253.22900000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>72471.440460</v>
+        <v>72471.440459999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>20.130956</v>
+        <v>20.130956000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1434.850000</v>
+        <v>1434.85</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.477000</v>
+        <v>-312.47699999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>72482.577135</v>
       </c>
       <c r="AZ6" s="1">
-        <v>20.134049</v>
+        <v>20.134049000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1454.700000</v>
+        <v>1454.7</v>
       </c>
       <c r="BB6" s="1">
-        <v>-363.905000</v>
+        <v>-363.90499999999997</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>72493.583357</v>
+        <v>72493.583356999996</v>
       </c>
       <c r="BE6" s="1">
-        <v>20.137106</v>
+        <v>20.137105999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1541.680000</v>
+        <v>1541.68</v>
       </c>
       <c r="BG6" s="1">
-        <v>-608.318000</v>
+        <v>-608.31799999999998</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>72504.968544</v>
+        <v>72504.968544000003</v>
       </c>
       <c r="BJ6" s="1">
         <v>20.140269</v>
       </c>
       <c r="BK6" s="1">
-        <v>1697.740000</v>
+        <v>1697.74</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1045.520000</v>
+        <v>-1045.52</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>72515.862656</v>
+        <v>72515.862655999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>20.143295</v>
+        <v>20.143294999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1993.780000</v>
+        <v>1993.78</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1800.430000</v>
+        <v>-1800.43</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>72526.607490</v>
+        <v>72526.607489999995</v>
       </c>
       <c r="BT6" s="1">
-        <v>20.146280</v>
+        <v>20.146280000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2384.010000</v>
+        <v>2384.0100000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2667.730000</v>
+        <v>-2667.73</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>72537.328020</v>
+        <v>72537.328020000001</v>
       </c>
       <c r="BY6" s="1">
         <v>20.149258</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2865.050000</v>
+        <v>2865.05</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3610.870000</v>
+        <v>-3610.87</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>72548.568853</v>
+        <v>72548.568853000004</v>
       </c>
       <c r="CD6" s="1">
-        <v>20.152380</v>
+        <v>20.152380000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4281.230000</v>
+        <v>4281.2299999999996</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5868.170000</v>
+        <v>-5868.17</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>72378.345845</v>
+        <v>72378.345845000003</v>
       </c>
       <c r="B7" s="1">
         <v>20.105096</v>
       </c>
       <c r="C7" s="1">
-        <v>1248.340000</v>
+        <v>1248.3399999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-301.017000</v>
+        <v>-301.017</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>72388.655192</v>
+        <v>72388.655192000006</v>
       </c>
       <c r="G7" s="1">
-        <v>20.107960</v>
+        <v>20.107959999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1272.690000</v>
+        <v>1272.69</v>
       </c>
       <c r="I7" s="1">
-        <v>-260.054000</v>
+        <v>-260.05399999999997</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>72399.162442</v>
+        <v>72399.162442000001</v>
       </c>
       <c r="L7" s="1">
         <v>20.110878</v>
       </c>
       <c r="M7" s="1">
-        <v>1307.820000</v>
+        <v>1307.82</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.414000</v>
+        <v>-201.41399999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>72409.361195</v>
+        <v>72409.361195000005</v>
       </c>
       <c r="Q7" s="1">
-        <v>20.113711</v>
+        <v>20.113710999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1320.130000</v>
+        <v>1320.13</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.145000</v>
+        <v>-184.14500000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>72419.591663</v>
+        <v>72419.591662999999</v>
       </c>
       <c r="V7" s="1">
         <v>20.116553</v>
       </c>
       <c r="W7" s="1">
-        <v>1333.800000</v>
+        <v>1333.8</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.487000</v>
+        <v>-171.48699999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>72429.750226</v>
+        <v>72429.750226000004</v>
       </c>
       <c r="AA7" s="1">
-        <v>20.119375</v>
+        <v>20.119375000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>1351.870000</v>
+        <v>1351.87</v>
       </c>
       <c r="AC7" s="1">
-        <v>-170.108000</v>
+        <v>-170.108</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>72439.961366</v>
+        <v>72439.961366000003</v>
       </c>
       <c r="AF7" s="1">
         <v>20.122211</v>
       </c>
       <c r="AG7" s="1">
-        <v>1365.480000</v>
+        <v>1365.48</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.152000</v>
+        <v>-180.15199999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>72450.176967</v>
+        <v>72450.176967000007</v>
       </c>
       <c r="AK7" s="1">
-        <v>20.125049</v>
+        <v>20.125049000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1386.970000</v>
+        <v>1386.97</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.801000</v>
+        <v>-209.80099999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>72460.835002</v>
+        <v>72460.835002000007</v>
       </c>
       <c r="AP7" s="1">
-        <v>20.128010</v>
+        <v>20.12801</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1409.490000</v>
+        <v>1409.49</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.218000</v>
+        <v>-253.21799999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>72471.804522</v>
+        <v>72471.804522000006</v>
       </c>
       <c r="AU7" s="1">
-        <v>20.131057</v>
+        <v>20.131056999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1434.800000</v>
+        <v>1434.8</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.524000</v>
+        <v>-312.524</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>72483.256187</v>
+        <v>72483.256187000006</v>
       </c>
       <c r="AZ7" s="1">
         <v>20.134238</v>
       </c>
       <c r="BA7" s="1">
-        <v>1454.710000</v>
+        <v>1454.71</v>
       </c>
       <c r="BB7" s="1">
-        <v>-363.877000</v>
+        <v>-363.87700000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>72494.277758</v>
+        <v>72494.277757999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>20.137299</v>
+        <v>20.137298999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1541.660000</v>
+        <v>1541.66</v>
       </c>
       <c r="BG7" s="1">
-        <v>-608.330000</v>
+        <v>-608.33000000000004</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>72505.429806</v>
@@ -1946,542 +2362,542 @@
         <v>20.140397</v>
       </c>
       <c r="BK7" s="1">
-        <v>1697.690000</v>
+        <v>1697.69</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1045.550000</v>
+        <v>-1045.55</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>72516.277808</v>
+        <v>72516.277807999999</v>
       </c>
       <c r="BO7" s="1">
         <v>20.143411</v>
       </c>
       <c r="BP7" s="1">
-        <v>1993.780000</v>
+        <v>1993.78</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1800.400000</v>
+        <v>-1800.4</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>72527.024129</v>
+        <v>72527.024128999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>20.146396</v>
+        <v>20.146395999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>2383.910000</v>
+        <v>2383.91</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2668.500000</v>
+        <v>-2668.5</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>72537.743667</v>
+        <v>72537.743667000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>20.149373</v>
+        <v>20.149373000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2863.740000</v>
+        <v>2863.74</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3611.240000</v>
+        <v>-3611.24</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>72549.086676</v>
+        <v>72549.086676000006</v>
       </c>
       <c r="CD7" s="1">
         <v>20.152524</v>
       </c>
       <c r="CE7" s="1">
-        <v>4277.290000</v>
+        <v>4277.29</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5877.920000</v>
+        <v>-5877.92</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>72378.587398</v>
+        <v>72378.587398000003</v>
       </c>
       <c r="B8" s="1">
-        <v>20.105163</v>
+        <v>20.105163000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1248.480000</v>
+        <v>1248.48</v>
       </c>
       <c r="D8" s="1">
-        <v>-301.103000</v>
+        <v>-301.10300000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>72389.000421</v>
+        <v>72389.000421000004</v>
       </c>
       <c r="G8" s="1">
-        <v>20.108056</v>
+        <v>20.108056000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1272.610000</v>
+        <v>1272.6099999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-260.803000</v>
+        <v>-260.803</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>72399.512122</v>
       </c>
       <c r="L8" s="1">
-        <v>20.110976</v>
+        <v>20.110976000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1307.870000</v>
+        <v>1307.8699999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.209000</v>
+        <v>-201.209</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>72409.709901</v>
+        <v>72409.709900999995</v>
       </c>
       <c r="Q8" s="1">
-        <v>20.113808</v>
+        <v>20.113807999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1320.030000</v>
+        <v>1320.03</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.219000</v>
+        <v>-184.21899999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>72420.275151</v>
+        <v>72420.275150999994</v>
       </c>
       <c r="V8" s="1">
         <v>20.116743</v>
       </c>
       <c r="W8" s="1">
-        <v>1333.730000</v>
+        <v>1333.73</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.752000</v>
+        <v>-171.75200000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>72430.450578</v>
+        <v>72430.450578000004</v>
       </c>
       <c r="AA8" s="1">
-        <v>20.119570</v>
+        <v>20.11957</v>
       </c>
       <c r="AB8" s="1">
-        <v>1351.760000</v>
+        <v>1351.76</v>
       </c>
       <c r="AC8" s="1">
-        <v>-170.188000</v>
+        <v>-170.18799999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>72440.316004</v>
+        <v>72440.316003999993</v>
       </c>
       <c r="AF8" s="1">
-        <v>20.122310</v>
+        <v>20.122309999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1365.340000</v>
+        <v>1365.34</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.920000</v>
+        <v>-179.92</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>72450.528668</v>
+        <v>72450.528667999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>20.125147</v>
+        <v>20.125146999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>1386.940000</v>
+        <v>1386.94</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.833000</v>
+        <v>-209.833</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>72461.185679</v>
+        <v>72461.185679000002</v>
       </c>
       <c r="AP8" s="1">
         <v>20.128107</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1409.470000</v>
+        <v>1409.47</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.218000</v>
+        <v>-253.21799999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>72472.488647</v>
+        <v>72472.488647000006</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.131247</v>
+        <v>20.131246999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>1434.820000</v>
+        <v>1434.82</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.501000</v>
+        <v>-312.50099999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>72483.653457</v>
+        <v>72483.653456999993</v>
       </c>
       <c r="AZ8" s="1">
-        <v>20.134348</v>
+        <v>20.134347999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1454.730000</v>
+        <v>1454.73</v>
       </c>
       <c r="BB8" s="1">
-        <v>-363.886000</v>
+        <v>-363.88600000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>72494.692908</v>
+        <v>72494.692907999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>20.137415</v>
+        <v>20.137415000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1541.700000</v>
+        <v>1541.7</v>
       </c>
       <c r="BG8" s="1">
-        <v>-608.336000</v>
+        <v>-608.33600000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>72505.821149</v>
+        <v>72505.821148999996</v>
       </c>
       <c r="BJ8" s="1">
-        <v>20.140506</v>
+        <v>20.140505999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1697.750000</v>
+        <v>1697.75</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1045.540000</v>
+        <v>-1045.54</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>72516.674608</v>
+        <v>72516.674608000001</v>
       </c>
       <c r="BO8" s="1">
         <v>20.143521</v>
       </c>
       <c r="BP8" s="1">
-        <v>1993.610000</v>
+        <v>1993.61</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1800.280000</v>
+        <v>-1800.28</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>72527.451682</v>
+        <v>72527.451681999999</v>
       </c>
       <c r="BT8" s="1">
         <v>20.146514</v>
       </c>
       <c r="BU8" s="1">
-        <v>2383.750000</v>
+        <v>2383.75</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2669.150000</v>
+        <v>-2669.15</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>72538.194035</v>
+        <v>72538.194034999993</v>
       </c>
       <c r="BY8" s="1">
-        <v>20.149498</v>
+        <v>20.149498000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2864.430000</v>
+        <v>2864.43</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3611.190000</v>
+        <v>-3611.19</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>72549.632771</v>
+        <v>72549.632771000004</v>
       </c>
       <c r="CD8" s="1">
         <v>20.152676</v>
       </c>
       <c r="CE8" s="1">
-        <v>4266.730000</v>
+        <v>4266.7299999999996</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5878.090000</v>
+        <v>-5878.09</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>72378.934101</v>
+        <v>72378.934101000006</v>
       </c>
       <c r="B9" s="1">
         <v>20.105259</v>
       </c>
       <c r="C9" s="1">
-        <v>1248.610000</v>
+        <v>1248.6099999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-301.103000</v>
+        <v>-301.10300000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>72389.346119</v>
+        <v>72389.346118999994</v>
       </c>
       <c r="G9" s="1">
         <v>20.108152</v>
       </c>
       <c r="H9" s="1">
-        <v>1273.630000</v>
+        <v>1273.6300000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-260.378000</v>
+        <v>-260.37799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>72400.196138</v>
+        <v>72400.196137999999</v>
       </c>
       <c r="L9" s="1">
-        <v>20.111166</v>
+        <v>20.111166000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1307.860000</v>
+        <v>1307.8599999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.345000</v>
+        <v>-201.345</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>72410.406780</v>
+        <v>72410.406780000005</v>
       </c>
       <c r="Q9" s="1">
-        <v>20.114002</v>
+        <v>20.114001999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1319.980000</v>
+        <v>1319.98</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.216000</v>
+        <v>-184.21600000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>72420.620398</v>
+        <v>72420.620397999999</v>
       </c>
       <c r="V9" s="1">
-        <v>20.116839</v>
+        <v>20.116838999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1333.640000</v>
+        <v>1333.64</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.612000</v>
+        <v>-171.61199999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>72430.800258</v>
+        <v>72430.800258000003</v>
       </c>
       <c r="AA9" s="1">
         <v>20.119667</v>
       </c>
       <c r="AB9" s="1">
-        <v>1351.780000</v>
+        <v>1351.78</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.966000</v>
+        <v>-169.96600000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>72440.658302</v>
+        <v>72440.658301999996</v>
       </c>
       <c r="AF9" s="1">
-        <v>20.122405</v>
+        <v>20.122405000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1365.300000</v>
+        <v>1365.3</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.060000</v>
+        <v>-180.06</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>72451.193302</v>
       </c>
       <c r="AK9" s="1">
-        <v>20.125331</v>
+        <v>20.125330999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1386.970000</v>
+        <v>1386.97</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.811000</v>
+        <v>-209.81100000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>72461.867703</v>
+        <v>72461.867702999996</v>
       </c>
       <c r="AP9" s="1">
         <v>20.128297</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1409.460000</v>
+        <v>1409.46</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.229000</v>
+        <v>-253.22900000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>72472.928954</v>
+        <v>72472.928954000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>20.131369</v>
+        <v>20.131368999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1434.830000</v>
+        <v>1434.83</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.467000</v>
+        <v>-312.46699999999998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>72484.039338</v>
+        <v>72484.039338000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>20.134455</v>
+        <v>20.134454999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1454.730000</v>
+        <v>1454.73</v>
       </c>
       <c r="BB9" s="1">
-        <v>-363.892000</v>
+        <v>-363.892</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>72495.054987</v>
+        <v>72495.054986999996</v>
       </c>
       <c r="BE9" s="1">
         <v>20.137515</v>
       </c>
       <c r="BF9" s="1">
-        <v>1541.660000</v>
+        <v>1541.66</v>
       </c>
       <c r="BG9" s="1">
-        <v>-608.378000</v>
+        <v>-608.37800000000004</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>72506.196622</v>
+        <v>72506.196622000003</v>
       </c>
       <c r="BJ9" s="1">
-        <v>20.140610</v>
+        <v>20.140609999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1697.660000</v>
+        <v>1697.66</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1045.460000</v>
+        <v>-1045.46</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>72517.101483</v>
+        <v>72517.101483000006</v>
       </c>
       <c r="BO9" s="1">
         <v>20.143639</v>
       </c>
       <c r="BP9" s="1">
-        <v>1993.680000</v>
+        <v>1993.68</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1800.380000</v>
+        <v>-1800.38</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>72527.887701</v>
@@ -2490,90 +2906,90 @@
         <v>20.146635</v>
       </c>
       <c r="BU9" s="1">
-        <v>2383.240000</v>
+        <v>2383.2399999999998</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2669.490000</v>
+        <v>-2669.49</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>72538.614146</v>
+        <v>72538.614146000007</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.149615</v>
+        <v>20.149615000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2864.590000</v>
+        <v>2864.59</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3611.160000</v>
+        <v>-3611.16</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>72550.161508</v>
+        <v>72550.161508000005</v>
       </c>
       <c r="CD9" s="1">
-        <v>20.152823</v>
+        <v>20.152823000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4281.410000</v>
+        <v>4281.41</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5872.030000</v>
+        <v>-5872.03</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>72379.271919</v>
+        <v>72379.271919000006</v>
       </c>
       <c r="B10" s="1">
-        <v>20.105353</v>
+        <v>20.105353000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1248.470000</v>
+        <v>1248.47</v>
       </c>
       <c r="D10" s="1">
-        <v>-300.860000</v>
+        <v>-300.86</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>72390.040022</v>
+        <v>72390.040022000001</v>
       </c>
       <c r="G10" s="1">
-        <v>20.108344</v>
+        <v>20.108343999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1273.490000</v>
+        <v>1273.49</v>
       </c>
       <c r="I10" s="1">
-        <v>-261.456000</v>
+        <v>-261.45600000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>72400.545288</v>
+        <v>72400.545287999994</v>
       </c>
       <c r="L10" s="1">
-        <v>20.111263</v>
+        <v>20.111263000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1307.850000</v>
+        <v>1307.8499999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.291000</v>
+        <v>-201.291</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>72410.756427</v>
@@ -2582,482 +2998,482 @@
         <v>20.114099</v>
       </c>
       <c r="R10" s="1">
-        <v>1320.090000</v>
+        <v>1320.09</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.106000</v>
+        <v>-184.10599999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>72420.961613</v>
+        <v>72420.961613000007</v>
       </c>
       <c r="V10" s="1">
-        <v>20.116934</v>
+        <v>20.116934000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1333.670000</v>
+        <v>1333.67</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.578000</v>
+        <v>-171.578</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>72431.138528</v>
+        <v>72431.138527999996</v>
       </c>
       <c r="AA10" s="1">
         <v>20.119761</v>
       </c>
       <c r="AB10" s="1">
-        <v>1351.740000</v>
+        <v>1351.74</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.071000</v>
+        <v>-170.071</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>72441.319907</v>
+        <v>72441.319906999997</v>
       </c>
       <c r="AF10" s="1">
-        <v>20.122589</v>
+        <v>20.122589000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1365.250000</v>
+        <v>1365.25</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.058000</v>
+        <v>-180.05799999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>72451.571221</v>
+        <v>72451.571221000006</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.125436</v>
+        <v>20.125436000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1386.980000</v>
+        <v>1386.98</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.820000</v>
+        <v>-209.82</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>72462.288776</v>
+        <v>72462.288776000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>20.128414</v>
+        <v>20.128413999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1409.420000</v>
+        <v>1409.42</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.239000</v>
+        <v>-253.239</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>72473.296488</v>
+        <v>72473.296488000007</v>
       </c>
       <c r="AU10" s="1">
-        <v>20.131471</v>
+        <v>20.131471000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1434.830000</v>
+        <v>1434.83</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.478000</v>
+        <v>-312.47800000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>72484.397945</v>
+        <v>72484.397945000004</v>
       </c>
       <c r="AZ10" s="1">
-        <v>20.134555</v>
+        <v>20.134554999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1454.700000</v>
+        <v>1454.7</v>
       </c>
       <c r="BB10" s="1">
-        <v>-363.872000</v>
+        <v>-363.87200000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>72495.419051</v>
+        <v>72495.419051000004</v>
       </c>
       <c r="BE10" s="1">
-        <v>20.137616</v>
+        <v>20.137616000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1541.700000</v>
+        <v>1541.7</v>
       </c>
       <c r="BG10" s="1">
-        <v>-608.359000</v>
+        <v>-608.35900000000004</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>72506.623676</v>
+        <v>72506.623676000003</v>
       </c>
       <c r="BJ10" s="1">
         <v>20.140729</v>
       </c>
       <c r="BK10" s="1">
-        <v>1697.660000</v>
+        <v>1697.66</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1045.450000</v>
+        <v>-1045.45</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>72517.492511</v>
+        <v>72517.492511000004</v>
       </c>
       <c r="BO10" s="1">
-        <v>20.143748</v>
+        <v>20.143747999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1993.730000</v>
+        <v>1993.73</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1800.310000</v>
+        <v>-1800.31</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>72528.299345</v>
+        <v>72528.299345000007</v>
       </c>
       <c r="BT10" s="1">
-        <v>20.146750</v>
+        <v>20.146750000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2382.790000</v>
+        <v>2382.79</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2669.990000</v>
+        <v>-2669.99</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>72539.039250</v>
+        <v>72539.039250000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>20.149733</v>
+        <v>20.149733000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2864.670000</v>
+        <v>2864.67</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3611.020000</v>
+        <v>-3611.02</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>72550.691267</v>
+        <v>72550.691267000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>20.152970</v>
+        <v>20.15297</v>
       </c>
       <c r="CE10" s="1">
-        <v>4261.400000</v>
+        <v>4261.3999999999996</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5863.000000</v>
+        <v>-5863</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>72379.958341</v>
+        <v>72379.958341000005</v>
       </c>
       <c r="B11" s="1">
-        <v>20.105544</v>
+        <v>20.105543999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1248.570000</v>
+        <v>1248.57</v>
       </c>
       <c r="D11" s="1">
-        <v>-300.705000</v>
+        <v>-300.70499999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>72390.396151</v>
+        <v>72390.396150999994</v>
       </c>
       <c r="G11" s="1">
-        <v>20.108443</v>
+        <v>20.108443000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1273.430000</v>
+        <v>1273.43</v>
       </c>
       <c r="I11" s="1">
-        <v>-260.819000</v>
+        <v>-260.81900000000002</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>72400.891497</v>
+        <v>72400.891497000004</v>
       </c>
       <c r="L11" s="1">
         <v>20.111359</v>
       </c>
       <c r="M11" s="1">
-        <v>1308.050000</v>
+        <v>1308.05</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.305000</v>
+        <v>-201.30500000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>72411.102138</v>
+        <v>72411.102138000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>20.114195</v>
+        <v>20.114194999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1320.090000</v>
+        <v>1320.09</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.134000</v>
+        <v>-184.13399999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>72421.631213</v>
+        <v>72421.631213000001</v>
       </c>
       <c r="V11" s="1">
-        <v>20.117120</v>
+        <v>20.11712</v>
       </c>
       <c r="W11" s="1">
-        <v>1333.510000</v>
+        <v>1333.51</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.433000</v>
+        <v>-171.43299999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>72431.585919</v>
+        <v>72431.585919000005</v>
       </c>
       <c r="AA11" s="1">
         <v>20.119885</v>
       </c>
       <c r="AB11" s="1">
-        <v>1351.870000</v>
+        <v>1351.87</v>
       </c>
       <c r="AC11" s="1">
-        <v>-170.059000</v>
+        <v>-170.059</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>72441.689960</v>
+        <v>72441.689960000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>20.122692</v>
+        <v>20.122692000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1365.370000</v>
+        <v>1365.37</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.033000</v>
+        <v>-180.03299999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>72451.924373</v>
+        <v>72451.924373000002</v>
       </c>
       <c r="AK11" s="1">
-        <v>20.125535</v>
+        <v>20.125534999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1386.960000</v>
+        <v>1386.96</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.823000</v>
+        <v>-209.82300000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>72462.649367</v>
+        <v>72462.649367000005</v>
       </c>
       <c r="AP11" s="1">
-        <v>20.128514</v>
+        <v>20.128513999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1409.440000</v>
+        <v>1409.44</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.219000</v>
+        <v>-253.21899999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>72473.664056</v>
+        <v>72473.664055999994</v>
       </c>
       <c r="AU11" s="1">
-        <v>20.131573</v>
+        <v>20.131572999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1434.850000</v>
+        <v>1434.85</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.490000</v>
+        <v>-312.49</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>72484.846329</v>
+        <v>72484.846329000007</v>
       </c>
       <c r="AZ11" s="1">
-        <v>20.134680</v>
+        <v>20.134679999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1454.680000</v>
+        <v>1454.68</v>
       </c>
       <c r="BB11" s="1">
-        <v>-363.872000</v>
+        <v>-363.87200000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>72495.847594</v>
+        <v>72495.847594000006</v>
       </c>
       <c r="BE11" s="1">
-        <v>20.137735</v>
+        <v>20.137734999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1541.650000</v>
+        <v>1541.65</v>
       </c>
       <c r="BG11" s="1">
-        <v>-608.325000</v>
+        <v>-608.32500000000005</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>72506.948588</v>
+        <v>72506.948587999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>20.140819</v>
       </c>
       <c r="BK11" s="1">
-        <v>1697.700000</v>
+        <v>1697.7</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1045.460000</v>
+        <v>-1045.46</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>72517.914110</v>
+        <v>72517.914109999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>20.143865</v>
+        <v>20.143865000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1993.650000</v>
+        <v>1993.65</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1800.290000</v>
+        <v>-1800.29</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>72528.723425</v>
+        <v>72528.723425000004</v>
       </c>
       <c r="BT11" s="1">
-        <v>20.146868</v>
+        <v>20.146868000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2381.910000</v>
+        <v>2381.91</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2670.110000</v>
+        <v>-2670.11</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>72539.487105</v>
+        <v>72539.487104999993</v>
       </c>
       <c r="BY11" s="1">
-        <v>20.149858</v>
+        <v>20.149857999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2864.400000</v>
+        <v>2864.4</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3610.830000</v>
+        <v>-3610.83</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>72551.226419</v>
+        <v>72551.226418999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.153118</v>
+        <v>20.153117999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4271.050000</v>
+        <v>4271.05</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5878.500000</v>
+        <v>-5878.5</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>72380.302598</v>
+        <v>72380.302597999995</v>
       </c>
       <c r="B12" s="1">
-        <v>20.105640</v>
+        <v>20.105640000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1248.570000</v>
+        <v>1248.57</v>
       </c>
       <c r="D12" s="1">
-        <v>-301.125000</v>
+        <v>-301.125</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>72390.739382</v>
@@ -3066,1403 +3482,1403 @@
         <v>20.108539</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.160000</v>
+        <v>1272.1600000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-261.025000</v>
+        <v>-261.02499999999998</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>72401.559112</v>
+        <v>72401.559112000003</v>
       </c>
       <c r="L12" s="1">
-        <v>20.111544</v>
+        <v>20.111543999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1307.880000</v>
+        <v>1307.8800000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.348000</v>
+        <v>-201.34800000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>72411.768761</v>
+        <v>72411.768760999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>20.114380</v>
+        <v>20.114380000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1320.100000</v>
+        <v>1320.1</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.172000</v>
+        <v>-184.172</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>72421.993292</v>
+        <v>72421.993291999999</v>
       </c>
       <c r="V12" s="1">
-        <v>20.117220</v>
+        <v>20.11722</v>
       </c>
       <c r="W12" s="1">
-        <v>1333.890000</v>
+        <v>1333.89</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.441000</v>
+        <v>-171.441</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>72431.842353</v>
       </c>
       <c r="AA12" s="1">
-        <v>20.119956</v>
+        <v>20.119955999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>1351.870000</v>
+        <v>1351.87</v>
       </c>
       <c r="AC12" s="1">
-        <v>-170.075000</v>
+        <v>-170.07499999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>72442.033154</v>
+        <v>72442.033154000004</v>
       </c>
       <c r="AF12" s="1">
-        <v>20.122787</v>
+        <v>20.122786999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1365.150000</v>
+        <v>1365.15</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.977000</v>
+        <v>-179.977</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>72452.271108</v>
+        <v>72452.271108000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>20.125631</v>
+        <v>20.125630999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>1386.950000</v>
+        <v>1386.95</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.794000</v>
+        <v>-209.79400000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>72463.011942</v>
+        <v>72463.011941999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.128614</v>
+        <v>20.128613999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1409.420000</v>
+        <v>1409.42</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.248000</v>
+        <v>-253.24799999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>72474.097527</v>
+        <v>72474.097527000005</v>
       </c>
       <c r="AU12" s="1">
         <v>20.131694</v>
       </c>
       <c r="AV12" s="1">
-        <v>1434.870000</v>
+        <v>1434.87</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.472000</v>
+        <v>-312.47199999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>72485.113710</v>
+        <v>72485.113710000005</v>
       </c>
       <c r="AZ12" s="1">
-        <v>20.134754</v>
+        <v>20.134754000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1454.700000</v>
+        <v>1454.7</v>
       </c>
       <c r="BB12" s="1">
-        <v>-363.880000</v>
+        <v>-363.88</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>72496.168010</v>
+        <v>72496.168009999994</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.137824</v>
+        <v>20.137823999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1541.670000</v>
+        <v>1541.67</v>
       </c>
       <c r="BG12" s="1">
-        <v>-608.330000</v>
+        <v>-608.33000000000004</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>72507.333980</v>
+        <v>72507.333979999996</v>
       </c>
       <c r="BJ12" s="1">
         <v>20.140926</v>
       </c>
       <c r="BK12" s="1">
-        <v>1697.750000</v>
+        <v>1697.75</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1045.540000</v>
+        <v>-1045.54</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>72518.312429</v>
+        <v>72518.312428999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>20.143976</v>
+        <v>20.143975999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1993.620000</v>
+        <v>1993.62</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1800.200000</v>
+        <v>-1800.2</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>72529.468912</v>
+        <v>72529.468911999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>20.147075</v>
+        <v>20.147075000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2381.670000</v>
+        <v>2381.67</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2669.840000</v>
+        <v>-2669.84</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>72539.919617</v>
+        <v>72539.919617000007</v>
       </c>
       <c r="BY12" s="1">
-        <v>20.149978</v>
+        <v>20.149978000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2863.460000</v>
+        <v>2863.46</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3610.790000</v>
+        <v>-3610.79</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>72552.067632</v>
+        <v>72552.067632000006</v>
       </c>
       <c r="CD12" s="1">
-        <v>20.153352</v>
+        <v>20.153352000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>4279.420000</v>
+        <v>4279.42</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5865.180000</v>
+        <v>-5865.18</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>72380.644307</v>
+        <v>72380.644306999995</v>
       </c>
       <c r="B13" s="1">
-        <v>20.105735</v>
+        <v>20.105734999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1248.540000</v>
+        <v>1248.54</v>
       </c>
       <c r="D13" s="1">
-        <v>-300.791000</v>
+        <v>-300.791</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>72391.397605</v>
+        <v>72391.397605000006</v>
       </c>
       <c r="G13" s="1">
         <v>20.108722</v>
       </c>
       <c r="H13" s="1">
-        <v>1272.760000</v>
+        <v>1272.76</v>
       </c>
       <c r="I13" s="1">
-        <v>-260.585000</v>
+        <v>-260.58499999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>72401.929624</v>
+        <v>72401.929623999997</v>
       </c>
       <c r="L13" s="1">
-        <v>20.111647</v>
+        <v>20.111647000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1308.060000</v>
+        <v>1308.06</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.133000</v>
+        <v>-201.13300000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>72412.153161</v>
+        <v>72412.153160999995</v>
       </c>
       <c r="Q13" s="1">
         <v>20.114487</v>
       </c>
       <c r="R13" s="1">
-        <v>1320.060000</v>
+        <v>1320.06</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.199000</v>
+        <v>-184.19900000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>72422.336524</v>
+        <v>72422.336523999998</v>
       </c>
       <c r="V13" s="1">
-        <v>20.117316</v>
+        <v>20.117315999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1333.810000</v>
+        <v>1333.81</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.429000</v>
+        <v>-171.429</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>72432.195007</v>
+        <v>72432.195007000002</v>
       </c>
       <c r="AA13" s="1">
         <v>20.120054</v>
       </c>
       <c r="AB13" s="1">
-        <v>1351.750000</v>
+        <v>1351.75</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.178000</v>
+        <v>-170.178</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>72442.376385</v>
+        <v>72442.376384999996</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.122882</v>
+        <v>20.122882000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1365.370000</v>
+        <v>1365.37</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.928000</v>
+        <v>-179.928</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>72452.701108</v>
+        <v>72452.701107999994</v>
       </c>
       <c r="AK13" s="1">
-        <v>20.125750</v>
+        <v>20.12575</v>
       </c>
       <c r="AL13" s="1">
-        <v>1386.940000</v>
+        <v>1386.94</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.813000</v>
+        <v>-209.81299999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>72463.452389</v>
+        <v>72463.452388999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>20.128737</v>
+        <v>20.128737000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1409.470000</v>
+        <v>1409.47</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.225000</v>
+        <v>-253.22499999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>72474.390167</v>
+        <v>72474.390167000005</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.131775</v>
+        <v>20.131775000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1434.820000</v>
+        <v>1434.82</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.475000</v>
+        <v>-312.47500000000002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>72485.472280</v>
+        <v>72485.472280000002</v>
       </c>
       <c r="AZ13" s="1">
         <v>20.134853</v>
       </c>
       <c r="BA13" s="1">
-        <v>1454.700000</v>
+        <v>1454.7</v>
       </c>
       <c r="BB13" s="1">
-        <v>-363.875000</v>
+        <v>-363.875</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>72496.501321</v>
+        <v>72496.501321000003</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.137917</v>
+        <v>20.137917000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1541.680000</v>
+        <v>1541.68</v>
       </c>
       <c r="BG13" s="1">
-        <v>-608.369000</v>
+        <v>-608.36900000000003</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>72507.723339</v>
+        <v>72507.723339000004</v>
       </c>
       <c r="BJ13" s="1">
-        <v>20.141034</v>
+        <v>20.141034000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1697.660000</v>
+        <v>1697.66</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1045.400000</v>
+        <v>-1045.4000000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>72518.742924</v>
+        <v>72518.742924000006</v>
       </c>
       <c r="BO13" s="1">
         <v>20.144095</v>
       </c>
       <c r="BP13" s="1">
-        <v>1993.570000</v>
+        <v>1993.57</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1800.080000</v>
+        <v>-1800.08</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>72529.585508</v>
+        <v>72529.585508000004</v>
       </c>
       <c r="BT13" s="1">
-        <v>20.147107</v>
+        <v>20.147106999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>2380.920000</v>
+        <v>2380.92</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2670.170000</v>
+        <v>-2670.17</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>72540.337744</v>
+        <v>72540.337744000004</v>
       </c>
       <c r="BY13" s="1">
-        <v>20.150094</v>
+        <v>20.150093999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2863.890000</v>
+        <v>2863.89</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3611.330000</v>
+        <v>-3611.33</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>72552.710447</v>
+        <v>72552.710447000005</v>
       </c>
       <c r="CD13" s="1">
-        <v>20.153531</v>
+        <v>20.153531000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4263.160000</v>
+        <v>4263.16</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5862.700000</v>
+        <v>-5862.7</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>72381.315897</v>
+        <v>72381.315896999993</v>
       </c>
       <c r="B14" s="1">
-        <v>20.105921</v>
+        <v>20.105920999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1248.300000</v>
+        <v>1248.3</v>
       </c>
       <c r="D14" s="1">
-        <v>-301.099000</v>
+        <v>-301.09899999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>72391.773076</v>
+        <v>72391.773075999998</v>
       </c>
       <c r="G14" s="1">
-        <v>20.108826</v>
+        <v>20.108826000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1272.380000</v>
+        <v>1272.3800000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-260.529000</v>
+        <v>-260.529</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>72402.273350</v>
+        <v>72402.273350000003</v>
       </c>
       <c r="L14" s="1">
-        <v>20.111743</v>
+        <v>20.111743000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1307.940000</v>
+        <v>1307.94</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.580000</v>
+        <v>-201.58</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>72412.500857</v>
+        <v>72412.500857000006</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.114584</v>
+        <v>20.114584000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1320.050000</v>
+        <v>1320.05</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.197000</v>
+        <v>-184.197</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>72422.688716</v>
+        <v>72422.688716000004</v>
       </c>
       <c r="V14" s="1">
         <v>20.117414</v>
       </c>
       <c r="W14" s="1">
-        <v>1333.720000</v>
+        <v>1333.72</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.507000</v>
+        <v>-171.50700000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>72432.627520</v>
+        <v>72432.627519999995</v>
       </c>
       <c r="AA14" s="1">
-        <v>20.120174</v>
+        <v>20.120173999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1351.880000</v>
+        <v>1351.88</v>
       </c>
       <c r="AC14" s="1">
-        <v>-170.129000</v>
+        <v>-170.12899999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>72442.803968</v>
+        <v>72442.803967999993</v>
       </c>
       <c r="AF14" s="1">
-        <v>20.123001</v>
+        <v>20.123000999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1365.370000</v>
+        <v>1365.37</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.916000</v>
+        <v>-179.916</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>72452.970437</v>
+        <v>72452.970436999996</v>
       </c>
       <c r="AK14" s="1">
-        <v>20.125825</v>
+        <v>20.125824999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1386.980000</v>
+        <v>1386.98</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.807000</v>
+        <v>-209.80699999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>72463.730645</v>
+        <v>72463.730645000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>20.128814</v>
+        <v>20.128813999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1409.430000</v>
+        <v>1409.43</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.244000</v>
+        <v>-253.244</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>72474.756247</v>
+        <v>72474.756246999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.131877</v>
+        <v>20.131876999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1434.800000</v>
+        <v>1434.8</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.482000</v>
+        <v>-312.48200000000003</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>72485.831384</v>
+        <v>72485.831384000005</v>
       </c>
       <c r="AZ14" s="1">
-        <v>20.134953</v>
+        <v>20.134952999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1454.700000</v>
+        <v>1454.7</v>
       </c>
       <c r="BB14" s="1">
-        <v>-363.915000</v>
+        <v>-363.91500000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>72497.220521</v>
+        <v>72497.220520999996</v>
       </c>
       <c r="BE14" s="1">
-        <v>20.138117</v>
+        <v>20.138117000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1541.650000</v>
+        <v>1541.65</v>
       </c>
       <c r="BG14" s="1">
-        <v>-608.340000</v>
+        <v>-608.34</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>72508.472762</v>
+        <v>72508.472762000005</v>
       </c>
       <c r="BJ14" s="1">
-        <v>20.141242</v>
+        <v>20.141241999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1697.670000</v>
+        <v>1697.67</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1045.400000</v>
+        <v>-1045.4000000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>72519.131823</v>
+        <v>72519.131823000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>20.144203</v>
+        <v>20.144203000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1993.590000</v>
+        <v>1993.59</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1800.220000</v>
+        <v>-1800.22</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>72530.005085</v>
+        <v>72530.005084999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>20.147224</v>
+        <v>20.147224000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2380.350000</v>
+        <v>2380.35</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2669.570000</v>
+        <v>-2669.57</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>72540.762320</v>
+        <v>72540.762319999994</v>
       </c>
       <c r="BY14" s="1">
         <v>20.150212</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2864.300000</v>
+        <v>2864.3</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3610.990000</v>
+        <v>-3610.99</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>72553.564558</v>
+        <v>72553.564557999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>20.153768</v>
+        <v>20.153767999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4277.170000</v>
+        <v>4277.17</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5863.890000</v>
+        <v>-5863.89</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>72381.668050</v>
+        <v>72381.668049999993</v>
       </c>
       <c r="B15" s="1">
         <v>20.106019</v>
       </c>
       <c r="C15" s="1">
-        <v>1248.440000</v>
+        <v>1248.44</v>
       </c>
       <c r="D15" s="1">
-        <v>-301.028000</v>
+        <v>-301.02800000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>72392.116772</v>
+        <v>72392.116771999994</v>
       </c>
       <c r="G15" s="1">
-        <v>20.108921</v>
+        <v>20.108920999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1273.000000</v>
+        <v>1273</v>
       </c>
       <c r="I15" s="1">
-        <v>-260.818000</v>
+        <v>-260.81799999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>72402.619061</v>
+        <v>72402.619061000005</v>
       </c>
       <c r="L15" s="1">
         <v>20.111839</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.950000</v>
+        <v>1307.95</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.577000</v>
+        <v>-201.577</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>72412.852024</v>
+        <v>72412.852024000007</v>
       </c>
       <c r="Q15" s="1">
-        <v>20.114681</v>
+        <v>20.114681000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1320.080000</v>
+        <v>1320.08</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.151000</v>
+        <v>-184.15100000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>72423.111809</v>
+        <v>72423.111808999995</v>
       </c>
       <c r="V15" s="1">
         <v>20.117531</v>
       </c>
       <c r="W15" s="1">
-        <v>1333.660000</v>
+        <v>1333.66</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.470000</v>
+        <v>-171.47</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>72432.901842</v>
+        <v>72432.901842000007</v>
       </c>
       <c r="AA15" s="1">
         <v>20.120251</v>
       </c>
       <c r="AB15" s="1">
-        <v>1351.850000</v>
+        <v>1351.85</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.104000</v>
+        <v>-170.10400000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>72443.095088</v>
+        <v>72443.095088000002</v>
       </c>
       <c r="AF15" s="1">
         <v>20.123082</v>
       </c>
       <c r="AG15" s="1">
-        <v>1365.510000</v>
+        <v>1365.51</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.836000</v>
+        <v>-179.83600000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>72453.319619</v>
+        <v>72453.319619000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.125922</v>
+        <v>20.125921999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1386.920000</v>
+        <v>1386.92</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.816000</v>
+        <v>-209.816</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>72464.091238</v>
+        <v>72464.091237999994</v>
       </c>
       <c r="AP15" s="1">
-        <v>20.128914</v>
+        <v>20.128914000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1409.450000</v>
+        <v>1409.45</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.213000</v>
+        <v>-253.21299999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>72475.117800</v>
+        <v>72475.117800000007</v>
       </c>
       <c r="AU15" s="1">
-        <v>20.131977</v>
+        <v>20.131976999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1434.840000</v>
+        <v>1434.84</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.466000</v>
+        <v>-312.46600000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>72486.550087</v>
+        <v>72486.550086999996</v>
       </c>
       <c r="AZ15" s="1">
-        <v>20.135153</v>
+        <v>20.135152999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1454.720000</v>
+        <v>1454.72</v>
       </c>
       <c r="BB15" s="1">
-        <v>-363.873000</v>
+        <v>-363.87299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>72497.584584</v>
+        <v>72497.584583999997</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.138218</v>
+        <v>20.138217999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1541.620000</v>
+        <v>1541.62</v>
       </c>
       <c r="BG15" s="1">
-        <v>-608.317000</v>
+        <v>-608.31700000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>72508.873563</v>
+        <v>72508.873563000001</v>
       </c>
       <c r="BJ15" s="1">
         <v>20.141354</v>
       </c>
       <c r="BK15" s="1">
-        <v>1697.630000</v>
+        <v>1697.63</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1045.370000</v>
+        <v>-1045.3699999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>72519.551135</v>
+        <v>72519.551135000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>20.144320</v>
+        <v>20.14432</v>
       </c>
       <c r="BP15" s="1">
-        <v>1993.660000</v>
+        <v>1993.66</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1800.260000</v>
+        <v>-1800.26</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>72530.749084</v>
+        <v>72530.749083999995</v>
       </c>
       <c r="BT15" s="1">
-        <v>20.147430</v>
+        <v>20.14743</v>
       </c>
       <c r="BU15" s="1">
-        <v>2379.750000</v>
+        <v>2379.75</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2669.010000</v>
+        <v>-2669.01</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>72541.499375</v>
+        <v>72541.499374999999</v>
       </c>
       <c r="BY15" s="1">
         <v>20.150416</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2863.590000</v>
+        <v>2863.59</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3610.690000</v>
+        <v>-3610.69</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>72553.790275</v>
+        <v>72553.790275000007</v>
       </c>
       <c r="CD15" s="1">
         <v>20.153831</v>
       </c>
       <c r="CE15" s="1">
-        <v>4279.310000</v>
+        <v>4279.3100000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5864.470000</v>
+        <v>-5864.47</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>72382.011777</v>
+        <v>72382.011777000007</v>
       </c>
       <c r="B16" s="1">
-        <v>20.106114</v>
+        <v>20.106114000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1248.660000</v>
+        <v>1248.6600000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-300.783000</v>
+        <v>-300.78300000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>72392.468931</v>
+        <v>72392.468930999996</v>
       </c>
       <c r="G16" s="1">
         <v>20.109019</v>
       </c>
       <c r="H16" s="1">
-        <v>1273.290000</v>
+        <v>1273.29</v>
       </c>
       <c r="I16" s="1">
-        <v>-260.928000</v>
+        <v>-260.928</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>72403.056533</v>
+        <v>72403.056532999995</v>
       </c>
       <c r="L16" s="1">
-        <v>20.111960</v>
+        <v>20.11196</v>
       </c>
       <c r="M16" s="1">
-        <v>1307.920000</v>
+        <v>1307.92</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.198000</v>
+        <v>-201.19800000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>72413.274152</v>
+        <v>72413.274151999998</v>
       </c>
       <c r="Q16" s="1">
         <v>20.114798</v>
       </c>
       <c r="R16" s="1">
-        <v>1320.130000</v>
+        <v>1320.13</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.121000</v>
+        <v>-184.12100000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>72423.390522</v>
+        <v>72423.390522000002</v>
       </c>
       <c r="V16" s="1">
-        <v>20.117608</v>
+        <v>20.117608000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1333.870000</v>
+        <v>1333.87</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.720000</v>
+        <v>-171.72</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>72433.250990</v>
+        <v>72433.25099</v>
       </c>
       <c r="AA16" s="1">
-        <v>20.120347</v>
+        <v>20.120346999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1351.900000</v>
+        <v>1351.9</v>
       </c>
       <c r="AC16" s="1">
-        <v>-170.000000</v>
+        <v>-170</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>72443.437329</v>
+        <v>72443.437328999993</v>
       </c>
       <c r="AF16" s="1">
-        <v>20.123177</v>
+        <v>20.123176999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1365.400000</v>
+        <v>1365.4</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.853000</v>
+        <v>-179.85300000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>72453.669795</v>
+        <v>72453.669794999994</v>
       </c>
       <c r="AK16" s="1">
-        <v>20.126019</v>
+        <v>20.126018999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1386.940000</v>
+        <v>1386.94</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.784000</v>
+        <v>-209.78399999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>72464.818868</v>
+        <v>72464.818868000002</v>
       </c>
       <c r="AP16" s="1">
         <v>20.129116</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1409.450000</v>
+        <v>1409.45</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.224000</v>
+        <v>-253.22399999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>72475.846917</v>
+        <v>72475.846917000003</v>
       </c>
       <c r="AU16" s="1">
-        <v>20.132180</v>
+        <v>20.132180000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>1434.860000</v>
+        <v>1434.86</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.481000</v>
+        <v>-312.48099999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>72486.933992</v>
+        <v>72486.933992000006</v>
       </c>
       <c r="AZ16" s="1">
-        <v>20.135259</v>
+        <v>20.135259000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1454.710000</v>
+        <v>1454.71</v>
       </c>
       <c r="BB16" s="1">
-        <v>-363.833000</v>
+        <v>-363.83300000000003</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>72497.944183</v>
       </c>
       <c r="BE16" s="1">
-        <v>20.138318</v>
+        <v>20.138318000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1541.670000</v>
+        <v>1541.67</v>
       </c>
       <c r="BG16" s="1">
-        <v>-608.340000</v>
+        <v>-608.34</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>72509.249529</v>
+        <v>72509.249528999993</v>
       </c>
       <c r="BJ16" s="1">
         <v>20.141458</v>
       </c>
       <c r="BK16" s="1">
-        <v>1697.590000</v>
+        <v>1697.59</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1045.400000</v>
+        <v>-1045.4000000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>72520.255722</v>
+        <v>72520.255722000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>20.144515</v>
+        <v>20.144514999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1993.420000</v>
+        <v>1993.42</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1800.090000</v>
+        <v>-1800.09</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>72530.879533</v>
+        <v>72530.879532999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>20.147467</v>
+        <v>20.147466999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2379.530000</v>
+        <v>2379.5300000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2668.380000</v>
+        <v>-2668.38</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>72541.626846</v>
+        <v>72541.626845999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>20.150452</v>
+        <v>20.150452000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2863.380000</v>
+        <v>2863.38</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3610.060000</v>
+        <v>-3610.06</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>72554.311038</v>
       </c>
       <c r="CD16" s="1">
-        <v>20.153975</v>
+        <v>20.153974999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4263.670000</v>
+        <v>4263.67</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5858.820000</v>
+        <v>-5858.82</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>72382.443792</v>
+        <v>72382.443792000005</v>
       </c>
       <c r="B17" s="1">
-        <v>20.106234</v>
+        <v>20.106234000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1248.470000</v>
+        <v>1248.47</v>
       </c>
       <c r="D17" s="1">
-        <v>-300.891000</v>
+        <v>-300.89100000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>72392.902930</v>
+        <v>72392.902929999997</v>
       </c>
       <c r="G17" s="1">
-        <v>20.109140</v>
+        <v>20.10914</v>
       </c>
       <c r="H17" s="1">
-        <v>1272.850000</v>
+        <v>1272.8499999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-261.189000</v>
+        <v>-261.18900000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>72403.315446</v>
+        <v>72403.315445999993</v>
       </c>
       <c r="L17" s="1">
-        <v>20.112032</v>
+        <v>20.112031999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1307.910000</v>
+        <v>1307.9100000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.339000</v>
+        <v>-201.339</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>72413.548407</v>
+        <v>72413.548406999995</v>
       </c>
       <c r="Q17" s="1">
-        <v>20.114875</v>
+        <v>20.114875000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1320.080000</v>
+        <v>1320.08</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.167000</v>
+        <v>-184.167</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>72423.735241</v>
+        <v>72423.735241000002</v>
       </c>
       <c r="V17" s="1">
         <v>20.117704</v>
       </c>
       <c r="W17" s="1">
-        <v>1333.660000</v>
+        <v>1333.66</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.598000</v>
+        <v>-171.59800000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>72433.599180</v>
+        <v>72433.599180000005</v>
       </c>
       <c r="AA17" s="1">
-        <v>20.120444</v>
+        <v>20.120443999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1351.810000</v>
+        <v>1351.81</v>
       </c>
       <c r="AC17" s="1">
-        <v>-170.020000</v>
+        <v>-170.02</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>72443.780560</v>
+        <v>72443.780559999999</v>
       </c>
       <c r="AF17" s="1">
         <v>20.123272</v>
       </c>
       <c r="AG17" s="1">
-        <v>1365.380000</v>
+        <v>1365.38</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.946000</v>
+        <v>-179.946</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>72454.365682</v>
+        <v>72454.365682000003</v>
       </c>
       <c r="AK17" s="1">
         <v>20.126213</v>
       </c>
       <c r="AL17" s="1">
-        <v>1387.000000</v>
+        <v>1387</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.806000</v>
+        <v>-209.80600000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>72465.196323</v>
+        <v>72465.196322999996</v>
       </c>
       <c r="AP17" s="1">
-        <v>20.129221</v>
+        <v>20.129221000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1409.460000</v>
+        <v>1409.46</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.251000</v>
+        <v>-253.251</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>72476.239749</v>
@@ -4471,512 +4887,512 @@
         <v>20.132289</v>
       </c>
       <c r="AV17" s="1">
-        <v>1434.820000</v>
+        <v>1434.82</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.483000</v>
+        <v>-312.483</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>72487.317894</v>
+        <v>72487.317894000007</v>
       </c>
       <c r="AZ17" s="1">
-        <v>20.135366</v>
+        <v>20.135366000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1454.700000</v>
+        <v>1454.7</v>
       </c>
       <c r="BB17" s="1">
-        <v>-363.838000</v>
+        <v>-363.83800000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>72498.622216</v>
+        <v>72498.622216000003</v>
       </c>
       <c r="BE17" s="1">
         <v>20.138506</v>
       </c>
       <c r="BF17" s="1">
-        <v>1541.640000</v>
+        <v>1541.64</v>
       </c>
       <c r="BG17" s="1">
-        <v>-608.282000</v>
+        <v>-608.28200000000004</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>72509.943400</v>
+        <v>72509.943400000004</v>
       </c>
       <c r="BJ17" s="1">
         <v>20.141651</v>
       </c>
       <c r="BK17" s="1">
-        <v>1697.700000</v>
+        <v>1697.7</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1045.390000</v>
+        <v>-1045.3900000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>72520.371290</v>
+        <v>72520.371289999995</v>
       </c>
       <c r="BO17" s="1">
         <v>20.144548</v>
       </c>
       <c r="BP17" s="1">
-        <v>1993.560000</v>
+        <v>1993.56</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1800.230000</v>
+        <v>-1800.23</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>72531.290221</v>
+        <v>72531.290221000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>20.147581</v>
+        <v>20.147580999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2379.370000</v>
+        <v>2379.37</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2667.480000</v>
+        <v>-2667.48</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>72542.040509</v>
+        <v>72542.040508999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.150567</v>
+        <v>20.150566999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2863.470000</v>
+        <v>2863.47</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3610.100000</v>
+        <v>-3610.1</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>72554.827373</v>
+        <v>72554.827372999993</v>
       </c>
       <c r="CD17" s="1">
-        <v>20.154119</v>
+        <v>20.154119000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>4266.520000</v>
+        <v>4266.5200000000004</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5855.870000</v>
+        <v>-5855.87</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>72382.718576</v>
+        <v>72382.718575999999</v>
       </c>
       <c r="B18" s="1">
-        <v>20.106311</v>
+        <v>20.106311000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1248.720000</v>
+        <v>1248.72</v>
       </c>
       <c r="D18" s="1">
-        <v>-301.049000</v>
+        <v>-301.04899999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>72393.170275</v>
+        <v>72393.170274999997</v>
       </c>
       <c r="G18" s="1">
-        <v>20.109214</v>
+        <v>20.109214000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1272.880000</v>
+        <v>1272.8800000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-260.551000</v>
+        <v>-260.55099999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>72403.663140</v>
+        <v>72403.663140000004</v>
       </c>
       <c r="L18" s="1">
-        <v>20.112129</v>
+        <v>20.112128999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1307.510000</v>
+        <v>1307.51</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.507000</v>
+        <v>-201.50700000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>72413.898584</v>
+        <v>72413.898583999995</v>
       </c>
       <c r="Q18" s="1">
-        <v>20.114972</v>
+        <v>20.114972000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>1320.150000</v>
+        <v>1320.15</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.184000</v>
+        <v>-184.184</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>72424.080457</v>
+        <v>72424.080457000004</v>
       </c>
       <c r="V18" s="1">
-        <v>20.117800</v>
+        <v>20.117799999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1333.670000</v>
+        <v>1333.67</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.497000</v>
+        <v>-171.49700000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>72434.295068</v>
+        <v>72434.295068000007</v>
       </c>
       <c r="AA18" s="1">
         <v>20.120638</v>
       </c>
       <c r="AB18" s="1">
-        <v>1351.790000</v>
+        <v>1351.79</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.916000</v>
+        <v>-169.916</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>72444.467022</v>
+        <v>72444.467021999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>20.123463</v>
+        <v>20.123463000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1365.370000</v>
+        <v>1365.37</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.991000</v>
+        <v>-179.99100000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>72454.712881</v>
+        <v>72454.712880999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>20.126309</v>
+        <v>20.126308999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1386.960000</v>
+        <v>1386.96</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.790000</v>
+        <v>-209.79</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>72465.553938</v>
+        <v>72465.553937999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>20.129321</v>
+        <v>20.129321000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1409.470000</v>
+        <v>1409.47</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.245000</v>
+        <v>-253.245</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>72476.603348</v>
+        <v>72476.603348000004</v>
       </c>
       <c r="AU18" s="1">
-        <v>20.132390</v>
+        <v>20.132390000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1434.840000</v>
+        <v>1434.84</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.452000</v>
+        <v>-312.452</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>72487.982533</v>
+        <v>72487.982533000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>20.135551</v>
       </c>
       <c r="BA18" s="1">
-        <v>1454.700000</v>
+        <v>1454.7</v>
       </c>
       <c r="BB18" s="1">
-        <v>-363.874000</v>
+        <v>-363.87400000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>72499.053735</v>
+        <v>72499.053734999994</v>
       </c>
       <c r="BE18" s="1">
-        <v>20.138626</v>
+        <v>20.138625999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1541.600000</v>
+        <v>1541.6</v>
       </c>
       <c r="BG18" s="1">
-        <v>-608.325000</v>
+        <v>-608.32500000000005</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>72510.406665</v>
+        <v>72510.406665000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>20.141780</v>
+        <v>20.141780000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1697.560000</v>
+        <v>1697.56</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1045.340000</v>
+        <v>-1045.3399999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>72520.790905</v>
+        <v>72520.790905000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>20.144664</v>
+        <v>20.144663999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1993.550000</v>
+        <v>1993.55</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1800.150000</v>
+        <v>-1800.15</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>72531.723754</v>
+        <v>72531.723754000006</v>
       </c>
       <c r="BT18" s="1">
-        <v>20.147701</v>
+        <v>20.147701000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>2379.530000</v>
+        <v>2379.5300000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2666.940000</v>
+        <v>-2666.94</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>72542.490381</v>
+        <v>72542.490380999996</v>
       </c>
       <c r="BY18" s="1">
-        <v>20.150692</v>
+        <v>20.150691999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2863.490000</v>
+        <v>2863.49</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3610.730000</v>
+        <v>-3610.73</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>72555.378924</v>
+        <v>72555.378924000004</v>
       </c>
       <c r="CD18" s="1">
-        <v>20.154272</v>
+        <v>20.154271999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4279.360000</v>
+        <v>4279.3599999999997</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5865.340000</v>
+        <v>-5865.34</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>72383.058831</v>
+        <v>72383.058831000002</v>
       </c>
       <c r="B19" s="1">
-        <v>20.106405</v>
+        <v>20.106404999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1248.560000</v>
+        <v>1248.56</v>
       </c>
       <c r="D19" s="1">
-        <v>-300.984000</v>
+        <v>-300.98399999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>72393.515987</v>
+        <v>72393.515987000006</v>
       </c>
       <c r="G19" s="1">
-        <v>20.109310</v>
+        <v>20.109310000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1272.440000</v>
+        <v>1272.44</v>
       </c>
       <c r="I19" s="1">
-        <v>-259.776000</v>
+        <v>-259.77600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>72404.007364</v>
+        <v>72404.007364000005</v>
       </c>
       <c r="L19" s="1">
-        <v>20.112224</v>
+        <v>20.112224000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1307.560000</v>
+        <v>1307.56</v>
       </c>
       <c r="N19" s="1">
-        <v>-201.263000</v>
+        <v>-201.26300000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>72414.247766</v>
       </c>
       <c r="Q19" s="1">
-        <v>20.115069</v>
+        <v>20.115068999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>1320.010000</v>
+        <v>1320.01</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.220000</v>
+        <v>-184.22</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>72424.764968</v>
+        <v>72424.764968000003</v>
       </c>
       <c r="V19" s="1">
-        <v>20.117990</v>
+        <v>20.117989999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1333.780000</v>
+        <v>1333.78</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.583000</v>
+        <v>-171.583</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>72434.645244</v>
+        <v>72434.645243999999</v>
       </c>
       <c r="AA19" s="1">
         <v>20.120735</v>
       </c>
       <c r="AB19" s="1">
-        <v>1351.850000</v>
+        <v>1351.85</v>
       </c>
       <c r="AC19" s="1">
-        <v>-170.084000</v>
+        <v>-170.084</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>72444.811779</v>
+        <v>72444.811778999996</v>
       </c>
       <c r="AF19" s="1">
         <v>20.123559</v>
       </c>
       <c r="AG19" s="1">
-        <v>1365.370000</v>
+        <v>1365.37</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.974000</v>
+        <v>-179.97399999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>72455.062066</v>
+        <v>72455.062065999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.126406</v>
+        <v>20.126405999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1386.960000</v>
+        <v>1386.96</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.784000</v>
+        <v>-209.78399999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>72466.240898</v>
+        <v>72466.240898000004</v>
       </c>
       <c r="AP19" s="1">
-        <v>20.129511</v>
+        <v>20.129511000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1409.450000</v>
+        <v>1409.45</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.225000</v>
+        <v>-253.22499999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>72477.284323</v>
@@ -4985,784 +5401,784 @@
         <v>20.132579</v>
       </c>
       <c r="AV19" s="1">
-        <v>1434.840000</v>
+        <v>1434.84</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.469000</v>
+        <v>-312.46899999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>72488.397709</v>
+        <v>72488.397708999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>20.135666</v>
+        <v>20.135666000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1454.700000</v>
+        <v>1454.7</v>
       </c>
       <c r="BB19" s="1">
-        <v>-363.885000</v>
+        <v>-363.88499999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>72499.413333</v>
+        <v>72499.413333000004</v>
       </c>
       <c r="BE19" s="1">
-        <v>20.138726</v>
+        <v>20.138725999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1541.620000</v>
+        <v>1541.62</v>
       </c>
       <c r="BG19" s="1">
-        <v>-608.288000</v>
+        <v>-608.28800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>72510.794572</v>
+        <v>72510.794571999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>20.141887</v>
+        <v>20.141887000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1697.660000</v>
+        <v>1697.66</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1045.360000</v>
+        <v>-1045.3599999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>72521.190185</v>
+        <v>72521.190184999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.144775</v>
+        <v>20.144774999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1993.450000</v>
+        <v>1993.45</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1800.120000</v>
+        <v>-1800.12</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>72532.156732</v>
+        <v>72532.156732000003</v>
       </c>
       <c r="BT19" s="1">
         <v>20.147821</v>
       </c>
       <c r="BU19" s="1">
-        <v>2379.960000</v>
+        <v>2379.96</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2666.210000</v>
+        <v>-2666.21</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>72542.918428</v>
+        <v>72542.918428000004</v>
       </c>
       <c r="BY19" s="1">
-        <v>20.150811</v>
+        <v>20.150811000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2863.950000</v>
+        <v>2863.95</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3610.580000</v>
+        <v>-3610.58</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>72555.910635</v>
+        <v>72555.910634999993</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.154420</v>
+        <v>20.154419999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>4264.660000</v>
+        <v>4264.66</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5858.080000</v>
+        <v>-5858.08</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>72383.398591</v>
+        <v>72383.398591000005</v>
       </c>
       <c r="B20" s="1">
-        <v>20.106500</v>
+        <v>20.1065</v>
       </c>
       <c r="C20" s="1">
-        <v>1248.550000</v>
+        <v>1248.55</v>
       </c>
       <c r="D20" s="1">
-        <v>-301.025000</v>
+        <v>-301.02499999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>72393.862350</v>
+        <v>72393.862349999996</v>
       </c>
       <c r="G20" s="1">
         <v>20.109406</v>
       </c>
       <c r="H20" s="1">
-        <v>1273.010000</v>
+        <v>1273.01</v>
       </c>
       <c r="I20" s="1">
-        <v>-261.091000</v>
+        <v>-261.09100000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>72404.699811</v>
+        <v>72404.699810999999</v>
       </c>
       <c r="L20" s="1">
-        <v>20.112417</v>
+        <v>20.112417000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1307.970000</v>
+        <v>1307.97</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.423000</v>
+        <v>-201.423</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>72414.959525</v>
+        <v>72414.959524999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>20.115267</v>
+        <v>20.115266999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1319.960000</v>
+        <v>1319.96</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.256000</v>
+        <v>-184.256</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>72425.110685</v>
+        <v>72425.110685000007</v>
       </c>
       <c r="V20" s="1">
-        <v>20.118086</v>
+        <v>20.118086000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>1333.920000</v>
+        <v>1333.92</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.598000</v>
+        <v>-171.59800000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>72434.995953</v>
+        <v>72434.995953000005</v>
       </c>
       <c r="AA20" s="1">
         <v>20.120832</v>
       </c>
       <c r="AB20" s="1">
-        <v>1351.720000</v>
+        <v>1351.72</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.151000</v>
+        <v>-170.15100000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>72445.154975</v>
+        <v>72445.154974999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.123654</v>
+        <v>20.123653999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1365.380000</v>
+        <v>1365.38</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.028000</v>
+        <v>-180.02799999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>72455.723233</v>
+        <v>72455.723232999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>20.126590</v>
+        <v>20.12659</v>
       </c>
       <c r="AL20" s="1">
-        <v>1386.980000</v>
+        <v>1386.98</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.784000</v>
+        <v>-209.78399999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>72466.633730</v>
+        <v>72466.633730000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>20.129620</v>
+        <v>20.129619999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1409.460000</v>
+        <v>1409.46</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.201000</v>
+        <v>-253.20099999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>72477.717332</v>
       </c>
       <c r="AU20" s="1">
-        <v>20.132699</v>
+        <v>20.132698999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1434.830000</v>
+        <v>1434.83</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.480000</v>
+        <v>-312.48</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>72488.774644</v>
+        <v>72488.774644000005</v>
       </c>
       <c r="AZ20" s="1">
-        <v>20.135771</v>
+        <v>20.135770999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1454.720000</v>
+        <v>1454.72</v>
       </c>
       <c r="BB20" s="1">
-        <v>-363.834000</v>
+        <v>-363.834</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>72499.774454</v>
+        <v>72499.774453999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>20.138826</v>
+        <v>20.138826000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1541.650000</v>
+        <v>1541.65</v>
       </c>
       <c r="BG20" s="1">
-        <v>-608.335000</v>
+        <v>-608.33500000000004</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>72511.173975</v>
+        <v>72511.173974999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>20.141993</v>
+        <v>20.141992999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1697.710000</v>
+        <v>1697.71</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1045.330000</v>
+        <v>-1045.33</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>72521.622234</v>
+        <v>72521.622233999995</v>
       </c>
       <c r="BO20" s="1">
-        <v>20.144895</v>
+        <v>20.144895000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1993.490000</v>
+        <v>1993.49</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1800.120000</v>
+        <v>-1800.12</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>72532.555051</v>
+        <v>72532.555051000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>20.147932</v>
+        <v>20.147932000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2379.980000</v>
+        <v>2379.98</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2665.610000</v>
+        <v>-2665.61</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>72543.336557</v>
+        <v>72543.336557000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>20.150927</v>
+        <v>20.150926999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2863.460000</v>
+        <v>2863.46</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3611.030000</v>
+        <v>-3611.03</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>72556.426507</v>
+        <v>72556.426506999996</v>
       </c>
       <c r="CD20" s="1">
         <v>20.154563</v>
       </c>
       <c r="CE20" s="1">
-        <v>4260.850000</v>
+        <v>4260.8500000000004</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5874.100000</v>
+        <v>-5874.1</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>72384.082574</v>
       </c>
       <c r="B21" s="1">
-        <v>20.106690</v>
+        <v>20.10669</v>
       </c>
       <c r="C21" s="1">
-        <v>1248.510000</v>
+        <v>1248.51</v>
       </c>
       <c r="D21" s="1">
-        <v>-300.796000</v>
+        <v>-300.79599999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>72394.553648</v>
+        <v>72394.553648000001</v>
       </c>
       <c r="G21" s="1">
-        <v>20.109598</v>
+        <v>20.109597999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>1272.460000</v>
+        <v>1272.46</v>
       </c>
       <c r="I21" s="1">
-        <v>-261.256000</v>
+        <v>-261.25599999999997</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>72405.053426</v>
+        <v>72405.053425999999</v>
       </c>
       <c r="L21" s="1">
-        <v>20.112515</v>
+        <v>20.112514999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1308.080000</v>
+        <v>1308.08</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.493000</v>
+        <v>-201.49299999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>72415.293925</v>
+        <v>72415.293925000005</v>
       </c>
       <c r="Q21" s="1">
-        <v>20.115359</v>
+        <v>20.115359000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>1319.980000</v>
+        <v>1319.98</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.177000</v>
+        <v>-184.17699999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>72425.449912</v>
+        <v>72425.449911999996</v>
       </c>
       <c r="V21" s="1">
         <v>20.118181</v>
       </c>
       <c r="W21" s="1">
-        <v>1333.670000</v>
+        <v>1333.67</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.582000</v>
+        <v>-171.58199999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>72435.668490</v>
+        <v>72435.668489999996</v>
       </c>
       <c r="AA21" s="1">
         <v>20.121019</v>
       </c>
       <c r="AB21" s="1">
-        <v>1351.770000</v>
+        <v>1351.77</v>
       </c>
       <c r="AC21" s="1">
-        <v>-170.003000</v>
+        <v>-170.00299999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>72445.833533</v>
+        <v>72445.833532999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>20.123843</v>
+        <v>20.123843000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1365.350000</v>
+        <v>1365.35</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.967000</v>
+        <v>-179.96700000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>72456.109628</v>
+        <v>72456.109628000006</v>
       </c>
       <c r="AK21" s="1">
         <v>20.126697</v>
       </c>
       <c r="AL21" s="1">
-        <v>1386.950000</v>
+        <v>1386.95</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.793000</v>
+        <v>-209.79300000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>72466.999809</v>
+        <v>72466.999809000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>20.129722</v>
+        <v>20.129722000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1409.450000</v>
+        <v>1409.45</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.240000</v>
+        <v>-253.24</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>72478.096771</v>
+        <v>72478.096770999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>20.132805</v>
+        <v>20.132805000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1434.820000</v>
+        <v>1434.82</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.466000</v>
+        <v>-312.46600000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>72489.154094</v>
+        <v>72489.154093999998</v>
       </c>
       <c r="AZ21" s="1">
         <v>20.135876</v>
       </c>
       <c r="BA21" s="1">
-        <v>1454.680000</v>
+        <v>1454.68</v>
       </c>
       <c r="BB21" s="1">
-        <v>-363.828000</v>
+        <v>-363.82799999999997</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>72500.203473</v>
+        <v>72500.203473000001</v>
       </c>
       <c r="BE21" s="1">
         <v>20.138945</v>
       </c>
       <c r="BF21" s="1">
-        <v>1541.620000</v>
+        <v>1541.62</v>
       </c>
       <c r="BG21" s="1">
-        <v>-608.269000</v>
+        <v>-608.26900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>72511.623350</v>
+        <v>72511.623349999994</v>
       </c>
       <c r="BJ21" s="1">
         <v>20.142118</v>
       </c>
       <c r="BK21" s="1">
-        <v>1697.670000</v>
+        <v>1697.67</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1045.370000</v>
+        <v>-1045.3699999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>72522.008125</v>
+        <v>72522.008124999993</v>
       </c>
       <c r="BO21" s="1">
-        <v>20.145002</v>
+        <v>20.145002000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1993.460000</v>
+        <v>1993.46</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1799.980000</v>
+        <v>-1799.98</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>72532.969676</v>
+        <v>72532.969675999993</v>
       </c>
       <c r="BT21" s="1">
-        <v>20.148047</v>
+        <v>20.148046999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>2380.760000</v>
+        <v>2380.7600000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2665.400000</v>
+        <v>-2665.4</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>72543.784972</v>
+        <v>72543.784971999994</v>
       </c>
       <c r="BY21" s="1">
-        <v>20.151051</v>
+        <v>20.151050999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2863.800000</v>
+        <v>2863.8</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3610.370000</v>
+        <v>-3610.37</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>72556.945817</v>
       </c>
       <c r="CD21" s="1">
-        <v>20.154707</v>
+        <v>20.154706999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>4278.210000</v>
+        <v>4278.21</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5874.160000</v>
+        <v>-5874.16</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>72384.424813</v>
+        <v>72384.424813000005</v>
       </c>
       <c r="B22" s="1">
-        <v>20.106785</v>
+        <v>20.106784999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1248.440000</v>
+        <v>1248.44</v>
       </c>
       <c r="D22" s="1">
-        <v>-300.944000</v>
+        <v>-300.94400000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>72394.907760</v>
+        <v>72394.907760000002</v>
       </c>
       <c r="G22" s="1">
-        <v>20.109697</v>
+        <v>20.109697000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1272.310000</v>
+        <v>1272.31</v>
       </c>
       <c r="I22" s="1">
-        <v>-261.338000</v>
+        <v>-261.33800000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>72405.397650</v>
+        <v>72405.397649999999</v>
       </c>
       <c r="L22" s="1">
-        <v>20.112610</v>
+        <v>20.11261</v>
       </c>
       <c r="M22" s="1">
-        <v>1308.190000</v>
+        <v>1308.19</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.336000</v>
+        <v>-201.33600000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>72415.960452</v>
+        <v>72415.960451999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.115545</v>
+        <v>20.115545000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1320.010000</v>
+        <v>1320.01</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.179000</v>
+        <v>-184.179</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>72426.115078</v>
+        <v>72426.115078000003</v>
       </c>
       <c r="V22" s="1">
-        <v>20.118365</v>
+        <v>20.118365000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1333.930000</v>
+        <v>1333.93</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.431000</v>
+        <v>-171.43100000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>72436.039003</v>
+        <v>72436.039002999998</v>
       </c>
       <c r="AA22" s="1">
         <v>20.121122</v>
       </c>
       <c r="AB22" s="1">
-        <v>1351.890000</v>
+        <v>1351.89</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.937000</v>
+        <v>-169.93700000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>72446.192605</v>
+        <v>72446.192605000004</v>
       </c>
       <c r="AF22" s="1">
         <v>20.123942</v>
       </c>
       <c r="AG22" s="1">
-        <v>1365.490000</v>
+        <v>1365.49</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.022000</v>
+        <v>-180.02199999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>72456.457821</v>
+        <v>72456.457821000004</v>
       </c>
       <c r="AK22" s="1">
         <v>20.126794</v>
       </c>
       <c r="AL22" s="1">
-        <v>1386.950000</v>
+        <v>1386.95</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.741000</v>
+        <v>-209.74100000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>72467.358384</v>
+        <v>72467.358384000006</v>
       </c>
       <c r="AP22" s="1">
-        <v>20.129822</v>
+        <v>20.129822000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1409.470000</v>
+        <v>1409.47</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.208000</v>
+        <v>-253.208</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>72478.459880</v>
+        <v>72478.459879999995</v>
       </c>
       <c r="AU22" s="1">
-        <v>20.132906</v>
+        <v>20.132905999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1434.840000</v>
+        <v>1434.84</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.478000</v>
+        <v>-312.47800000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>72489.589603</v>
@@ -5771,43 +6187,43 @@
         <v>20.135997</v>
       </c>
       <c r="BA22" s="1">
-        <v>1454.710000</v>
+        <v>1454.71</v>
       </c>
       <c r="BB22" s="1">
-        <v>-363.865000</v>
+        <v>-363.86500000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>72500.498085</v>
+        <v>72500.498084999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>20.139027</v>
+        <v>20.139026999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1541.680000</v>
+        <v>1541.68</v>
       </c>
       <c r="BG22" s="1">
-        <v>-608.285000</v>
+        <v>-608.28499999999997</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>72511.926405</v>
+        <v>72511.926405000006</v>
       </c>
       <c r="BJ22" s="1">
-        <v>20.142202</v>
+        <v>20.142202000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1697.620000</v>
+        <v>1697.62</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1045.340000</v>
+        <v>-1045.3399999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>72522.426215</v>
@@ -5816,1088 +6232,1089 @@
         <v>20.145118</v>
       </c>
       <c r="BP22" s="1">
-        <v>1993.400000</v>
+        <v>1993.4</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1799.840000</v>
+        <v>-1799.84</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>72533.388297</v>
+        <v>72533.388296999998</v>
       </c>
       <c r="BT22" s="1">
         <v>20.148163</v>
       </c>
       <c r="BU22" s="1">
-        <v>2381.230000</v>
+        <v>2381.23</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2665.340000</v>
+        <v>-2665.34</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>72544.219434</v>
+        <v>72544.219433999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>20.151172</v>
+        <v>20.151171999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2863.700000</v>
+        <v>2863.7</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3610.560000</v>
+        <v>-3610.56</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>72557.462617</v>
+        <v>72557.462616999997</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.154851</v>
+        <v>20.154851000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4272.650000</v>
+        <v>4272.6499999999996</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5877.640000</v>
+        <v>-5877.64</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>72384.767053</v>
+        <v>72384.767053000003</v>
       </c>
       <c r="B23" s="1">
-        <v>20.106880</v>
+        <v>20.10688</v>
       </c>
       <c r="C23" s="1">
-        <v>1248.560000</v>
+        <v>1248.56</v>
       </c>
       <c r="D23" s="1">
-        <v>-300.959000</v>
+        <v>-300.959</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>72395.253471</v>
+        <v>72395.253471000004</v>
       </c>
       <c r="G23" s="1">
         <v>20.109793</v>
       </c>
       <c r="H23" s="1">
-        <v>1272.840000</v>
+        <v>1272.8399999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-261.114000</v>
+        <v>-261.11399999999998</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>72406.060812</v>
+        <v>72406.060811999996</v>
       </c>
       <c r="L23" s="1">
-        <v>20.112795</v>
+        <v>20.112794999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>1308.180000</v>
+        <v>1308.18</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.510000</v>
+        <v>-201.51</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>72416.335924</v>
+        <v>72416.335923999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.115649</v>
+        <v>20.115649000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1320.080000</v>
+        <v>1320.08</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.294000</v>
+        <v>-184.29400000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>72426.483078</v>
+        <v>72426.483078000005</v>
       </c>
       <c r="V23" s="1">
         <v>20.118468</v>
       </c>
       <c r="W23" s="1">
-        <v>1333.530000</v>
+        <v>1333.53</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.788000</v>
+        <v>-171.78800000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>72436.389674</v>
+        <v>72436.389674000005</v>
       </c>
       <c r="AA23" s="1">
         <v>20.121219</v>
       </c>
       <c r="AB23" s="1">
-        <v>1351.790000</v>
+        <v>1351.79</v>
       </c>
       <c r="AC23" s="1">
-        <v>-170.079000</v>
+        <v>-170.07900000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>72446.538845</v>
+        <v>72446.538845000003</v>
       </c>
       <c r="AF23" s="1">
         <v>20.124039</v>
       </c>
       <c r="AG23" s="1">
-        <v>1365.230000</v>
+        <v>1365.23</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.068000</v>
+        <v>-180.06800000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>72456.805998</v>
+        <v>72456.805997999996</v>
       </c>
       <c r="AK23" s="1">
-        <v>20.126891</v>
+        <v>20.126891000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1386.950000</v>
+        <v>1386.95</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.814000</v>
+        <v>-209.81399999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>72467.785967</v>
+        <v>72467.785967000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>20.129941</v>
+        <v>20.129940999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1409.460000</v>
+        <v>1409.46</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.230000</v>
+        <v>-253.23</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>72478.893377</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.133026</v>
+        <v>20.133026000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1434.830000</v>
+        <v>1434.83</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.429000</v>
+        <v>-312.42899999999997</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>72489.872292</v>
       </c>
       <c r="AZ23" s="1">
-        <v>20.136076</v>
+        <v>20.136075999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1454.720000</v>
+        <v>1454.72</v>
       </c>
       <c r="BB23" s="1">
-        <v>-363.857000</v>
+        <v>-363.85700000000003</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>72500.858677</v>
+        <v>72500.858676999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>20.139127</v>
+        <v>20.139126999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1541.650000</v>
+        <v>1541.65</v>
       </c>
       <c r="BG23" s="1">
-        <v>-608.291000</v>
+        <v>-608.29100000000005</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>72512.313285</v>
+        <v>72512.313284999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>20.142309</v>
+        <v>20.142309000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1697.580000</v>
+        <v>1697.58</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1045.390000</v>
+        <v>-1045.3900000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>72522.825495</v>
+        <v>72522.825494999997</v>
       </c>
       <c r="BO23" s="1">
         <v>20.145229</v>
       </c>
       <c r="BP23" s="1">
-        <v>1993.390000</v>
+        <v>1993.39</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1799.970000</v>
+        <v>-1799.97</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>72533.822793</v>
+        <v>72533.822792999999</v>
       </c>
       <c r="BT23" s="1">
         <v>20.148284</v>
       </c>
       <c r="BU23" s="1">
-        <v>2381.780000</v>
+        <v>2381.7800000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2665.270000</v>
+        <v>-2665.27</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>72544.659386</v>
+        <v>72544.659385999999</v>
       </c>
       <c r="BY23" s="1">
         <v>20.151294</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2864.250000</v>
+        <v>2864.25</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3610.360000</v>
+        <v>-3610.36</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>72558.014452</v>
+        <v>72558.014452000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>20.155004</v>
+        <v>20.155004000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>4261.390000</v>
+        <v>4261.3900000000003</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5873.270000</v>
+        <v>-5873.27</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>72385.423794</v>
+        <v>72385.423794000002</v>
       </c>
       <c r="B24" s="1">
-        <v>20.107062</v>
+        <v>20.107061999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1248.600000</v>
+        <v>1248.5999999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-300.884000</v>
+        <v>-300.88400000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>72395.921088</v>
+        <v>72395.921088000003</v>
       </c>
       <c r="G24" s="1">
-        <v>20.109978</v>
+        <v>20.109978000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1272.180000</v>
+        <v>1272.18</v>
       </c>
       <c r="I24" s="1">
-        <v>-259.838000</v>
+        <v>-259.83800000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>72406.434289</v>
+        <v>72406.434288999997</v>
       </c>
       <c r="L24" s="1">
-        <v>20.112898</v>
+        <v>20.112898000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1307.960000</v>
+        <v>1307.96</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.235000</v>
+        <v>-201.23500000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>72416.685109</v>
+        <v>72416.685108999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>20.115746</v>
+        <v>20.115746000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1319.960000</v>
+        <v>1319.96</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.293000</v>
+        <v>-184.29300000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>72426.827812</v>
+        <v>72426.827812000003</v>
       </c>
       <c r="V24" s="1">
-        <v>20.118563</v>
+        <v>20.118563000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>1333.670000</v>
+        <v>1333.67</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.561000</v>
+        <v>-171.56100000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>72436.737369</v>
+        <v>72436.737368999995</v>
       </c>
       <c r="AA24" s="1">
         <v>20.121316</v>
       </c>
       <c r="AB24" s="1">
-        <v>1351.920000</v>
+        <v>1351.92</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.186000</v>
+        <v>-170.18600000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>72446.890971</v>
+        <v>72446.890971000001</v>
       </c>
       <c r="AF24" s="1">
         <v>20.124136</v>
       </c>
       <c r="AG24" s="1">
-        <v>1365.470000</v>
+        <v>1365.47</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.004000</v>
+        <v>-180.00399999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>72457.239005</v>
+        <v>72457.239004999996</v>
       </c>
       <c r="AK24" s="1">
         <v>20.127011</v>
       </c>
       <c r="AL24" s="1">
-        <v>1386.990000</v>
+        <v>1386.99</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.785000</v>
+        <v>-209.785</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>72468.079568</v>
+        <v>72468.079568000001</v>
       </c>
       <c r="AP24" s="1">
         <v>20.130022</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1409.470000</v>
+        <v>1409.47</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.239000</v>
+        <v>-253.239</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>72479.191938</v>
+        <v>72479.191938000004</v>
       </c>
       <c r="AU24" s="1">
-        <v>20.133109</v>
+        <v>20.133109000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1434.830000</v>
+        <v>1434.83</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.481000</v>
+        <v>-312.48099999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>72490.227954</v>
+        <v>72490.227954000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>20.136174</v>
       </c>
       <c r="BA24" s="1">
-        <v>1454.700000</v>
+        <v>1454.7</v>
       </c>
       <c r="BB24" s="1">
-        <v>-363.906000</v>
+        <v>-363.90600000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>72501.221747</v>
+        <v>72501.221747000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>20.139228</v>
+        <v>20.139227999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1541.640000</v>
+        <v>1541.64</v>
       </c>
       <c r="BG24" s="1">
-        <v>-608.271000</v>
+        <v>-608.27099999999996</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>72512.949156</v>
+        <v>72512.949156000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>20.142486</v>
+        <v>20.142486000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1697.700000</v>
+        <v>1697.7</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1045.300000</v>
+        <v>-1045.3</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>72523.258008</v>
+        <v>72523.258008000004</v>
       </c>
       <c r="BO24" s="1">
         <v>20.145349</v>
       </c>
       <c r="BP24" s="1">
-        <v>1993.580000</v>
+        <v>1993.58</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1800.020000</v>
+        <v>-1800.02</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>72534.219096</v>
+        <v>72534.219096000001</v>
       </c>
       <c r="BT24" s="1">
         <v>20.148394</v>
       </c>
       <c r="BU24" s="1">
-        <v>2382.340000</v>
+        <v>2382.34</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2665.090000</v>
+        <v>-2665.09</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>72545.061146</v>
+        <v>72545.061145999993</v>
       </c>
       <c r="BY24" s="1">
-        <v>20.151406</v>
+        <v>20.151406000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2863.680000</v>
+        <v>2863.68</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3610.370000</v>
+        <v>-3610.37</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>72558.544888</v>
+        <v>72558.544888000004</v>
       </c>
       <c r="CD24" s="1">
         <v>20.155151</v>
       </c>
       <c r="CE24" s="1">
-        <v>4278.040000</v>
+        <v>4278.04</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5872.380000</v>
+        <v>-5872.38</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>72385.789310</v>
+        <v>72385.789309999993</v>
       </c>
       <c r="B25" s="1">
-        <v>20.107164</v>
+        <v>20.107164000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1248.410000</v>
+        <v>1248.4100000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-300.837000</v>
+        <v>-300.83699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>72396.286144</v>
+        <v>72396.286143999998</v>
       </c>
       <c r="G25" s="1">
-        <v>20.110079</v>
+        <v>20.110078999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1273.350000</v>
+        <v>1273.3499999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-260.819000</v>
+        <v>-260.81900000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>72406.780993</v>
+        <v>72406.780992999993</v>
       </c>
       <c r="L25" s="1">
-        <v>20.112995</v>
+        <v>20.112995000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1307.760000</v>
+        <v>1307.76</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.333000</v>
+        <v>-201.333</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>72417.035282</v>
+        <v>72417.035281999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.115843</v>
+        <v>20.115843000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1319.960000</v>
+        <v>1319.96</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.203000</v>
+        <v>-184.203</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>72427.177012</v>
       </c>
       <c r="V25" s="1">
-        <v>20.118660</v>
+        <v>20.118659999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>1333.620000</v>
+        <v>1333.62</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.684000</v>
+        <v>-171.684</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>72437.164953</v>
       </c>
       <c r="AA25" s="1">
-        <v>20.121435</v>
+        <v>20.121435000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>1351.890000</v>
+        <v>1351.89</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.944000</v>
+        <v>-169.94399999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>72447.328444</v>
+        <v>72447.328443999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>20.124258</v>
+        <v>20.124258000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1365.350000</v>
+        <v>1365.35</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.877000</v>
+        <v>-179.87700000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>72457.514813</v>
+        <v>72457.514813000002</v>
       </c>
       <c r="AK25" s="1">
         <v>20.127087</v>
       </c>
       <c r="AL25" s="1">
-        <v>1386.950000</v>
+        <v>1386.95</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.809000</v>
+        <v>-209.809</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>72468.438671</v>
+        <v>72468.438670999996</v>
       </c>
       <c r="AP25" s="1">
         <v>20.130122</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1409.470000</v>
+        <v>1409.47</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.211000</v>
+        <v>-253.21100000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>72479.553522</v>
+        <v>72479.553522000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>20.133209</v>
+        <v>20.133209000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1434.860000</v>
+        <v>1434.86</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.502000</v>
+        <v>-312.50200000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>72490.587048</v>
+        <v>72490.587048000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>20.136274</v>
       </c>
       <c r="BA25" s="1">
-        <v>1454.670000</v>
+        <v>1454.67</v>
       </c>
       <c r="BB25" s="1">
-        <v>-363.827000</v>
+        <v>-363.827</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>72501.941940</v>
+        <v>72501.941940000004</v>
       </c>
       <c r="BE25" s="1">
-        <v>20.139428</v>
+        <v>20.139427999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1541.650000</v>
+        <v>1541.65</v>
       </c>
       <c r="BG25" s="1">
-        <v>-608.300000</v>
+        <v>-608.29999999999995</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>72513.072164</v>
+        <v>72513.072163999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>20.142520</v>
+        <v>20.142520000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1697.660000</v>
+        <v>1697.66</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1045.300000</v>
+        <v>-1045.3</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>72523.641910</v>
+        <v>72523.641910000006</v>
       </c>
       <c r="BO25" s="1">
-        <v>20.145456</v>
+        <v>20.145455999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1993.400000</v>
+        <v>1993.4</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1799.940000</v>
+        <v>-1799.94</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>72534.631767</v>
+        <v>72534.631766999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>20.148509</v>
+        <v>20.148509000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2382.630000</v>
+        <v>2382.63</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2665.470000</v>
+        <v>-2665.47</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>72545.487705</v>
+        <v>72545.487705000007</v>
       </c>
       <c r="BY25" s="1">
-        <v>20.151524</v>
+        <v>20.151523999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2864.110000</v>
+        <v>2864.11</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3610.350000</v>
+        <v>-3610.35</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>72559.387126</v>
+        <v>72559.387126000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>20.155385</v>
+        <v>20.155384999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4273.180000</v>
+        <v>4273.18</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5855.240000</v>
+        <v>-5855.24</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>72386.133037</v>
+        <v>72386.133037000007</v>
       </c>
       <c r="B26" s="1">
-        <v>20.107259</v>
+        <v>20.107258999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1248.800000</v>
+        <v>1248.8</v>
       </c>
       <c r="D26" s="1">
-        <v>-300.744000</v>
+        <v>-300.74400000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>72396.629870</v>
+        <v>72396.629870000004</v>
       </c>
       <c r="G26" s="1">
-        <v>20.110175</v>
+        <v>20.110175000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1273.650000</v>
+        <v>1273.6500000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-260.202000</v>
+        <v>-260.202</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>72407.127949</v>
+        <v>72407.127949000002</v>
       </c>
       <c r="L26" s="1">
-        <v>20.113091</v>
+        <v>20.113091000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1308.010000</v>
+        <v>1308.01</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.250000</v>
+        <v>-201.25</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>72417.465810</v>
+        <v>72417.465809999994</v>
       </c>
       <c r="Q26" s="1">
-        <v>20.115963</v>
+        <v>20.115963000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1320.030000</v>
+        <v>1320.03</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.193000</v>
+        <v>-184.19300000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>72427.607510</v>
+        <v>72427.607510000002</v>
       </c>
       <c r="V26" s="1">
-        <v>20.118780</v>
+        <v>20.118780000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1333.580000</v>
+        <v>1333.58</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.622000</v>
+        <v>-171.62200000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>72437.444664</v>
+        <v>72437.444663999995</v>
       </c>
       <c r="AA26" s="1">
-        <v>20.121512</v>
+        <v>20.121511999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1351.920000</v>
+        <v>1351.92</v>
       </c>
       <c r="AC26" s="1">
-        <v>-170.032000</v>
+        <v>-170.03200000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>72447.610668</v>
+        <v>72447.610667999994</v>
       </c>
       <c r="AF26" s="1">
         <v>20.124336</v>
       </c>
       <c r="AG26" s="1">
-        <v>1365.380000</v>
+        <v>1365.38</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.018000</v>
+        <v>-180.018</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>72457.865489</v>
+        <v>72457.865489000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>20.127185</v>
+        <v>20.127185000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1386.950000</v>
+        <v>1386.95</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.831000</v>
+        <v>-209.83099999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>72468.799301</v>
+        <v>72468.799301000006</v>
       </c>
       <c r="AP26" s="1">
         <v>20.130222</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1409.450000</v>
+        <v>1409.45</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.215000</v>
+        <v>-253.215</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>72480.247423</v>
+        <v>72480.247422999993</v>
       </c>
       <c r="AU26" s="1">
         <v>20.133402</v>
       </c>
       <c r="AV26" s="1">
-        <v>1434.830000</v>
+        <v>1434.83</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.469000</v>
+        <v>-312.46899999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>72491.305260</v>
+        <v>72491.305259999994</v>
       </c>
       <c r="AZ26" s="1">
         <v>20.136474</v>
       </c>
       <c r="BA26" s="1">
-        <v>1454.700000</v>
+        <v>1454.7</v>
       </c>
       <c r="BB26" s="1">
-        <v>-363.824000</v>
+        <v>-363.82400000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>72502.304514</v>
+        <v>72502.304514000003</v>
       </c>
       <c r="BE26" s="1">
         <v>20.139529</v>
       </c>
       <c r="BF26" s="1">
-        <v>1541.650000</v>
+        <v>1541.65</v>
       </c>
       <c r="BG26" s="1">
-        <v>-608.269000</v>
+        <v>-608.26900000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>72513.445188</v>
+        <v>72513.445187999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.142624</v>
+        <v>20.142624000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1697.640000</v>
+        <v>1697.64</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1045.320000</v>
+        <v>-1045.32</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>72524.060533</v>
+        <v>72524.060532999996</v>
       </c>
       <c r="BO26" s="1">
-        <v>20.145572</v>
+        <v>20.145572000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1993.440000</v>
+        <v>1993.44</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1799.950000</v>
+        <v>-1799.95</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>72535.359894</v>
+        <v>72535.359893999994</v>
       </c>
       <c r="BT26" s="1">
-        <v>20.148711</v>
+        <v>20.148710999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2383.150000</v>
+        <v>2383.15</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2665.940000</v>
+        <v>-2665.94</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>72545.935592</v>
+        <v>72545.935591999994</v>
       </c>
       <c r="BY26" s="1">
-        <v>20.151649</v>
+        <v>20.151648999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2864.320000</v>
+        <v>2864.32</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3610.080000</v>
+        <v>-3610.08</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>72559.580534</v>
+        <v>72559.580533999993</v>
       </c>
       <c r="CD26" s="1">
-        <v>20.155439</v>
+        <v>20.155439000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4257.540000</v>
+        <v>4257.54</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5861.310000</v>
+        <v>-5861.31</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>